--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21399792-689A-470B-99B0-A5C49FAC69F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB8C6C-753C-4B72-9089-1CCDA0E8AE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="231">
   <si>
     <t>##var</t>
   </si>
@@ -72,22 +61,777 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DlgGameMode/EGBackGround/E_ReturnLogin/Text</t>
-  </si>
-  <si>
     <t>重新登录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(en)重新登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameMode/EGBackGround/E_ReturnLogin/Text2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgGameMode/EGBackGround/E_ReturnLogin/E_ReturnText</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Level/Unopened/null/Text (TMP)</t>
+  </si>
+  <si>
+    <t>未开启</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Level/TurnOn/TreasureChest_normal/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Level/TurnOn/TreasureChest_Open/Text (TMP)</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
+  <si>
+    <t>SinglePlayerMode/E_SinglePlayerMode/E_Mode/E_RefreshRoomList/Text</t>
+  </si>
+  <si>
+    <t>重扫战场</t>
+  </si>
+  <si>
+    <t>SinglePlayerMode/E_SinglePlayerMode/E_Mode/E_CreateRoom/Text</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>SinglePlayerMode/E_SinglePlayerMode/E_ReturnLogin/Text</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/E_QuitBattle/Text</t>
+  </si>
+  <si>
+    <t>退出战斗</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_RoomMemberStatus/ELable_RoomMemberStatus</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_QuitRoom/Text</t>
+  </si>
+  <si>
+    <t>退出房间</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_PutHome/ELabel_PutHome</t>
+  </si>
+  <si>
+    <t>放置大本营</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/GameObject/ELabel_TotalGold</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/EButton_Buy/ELabel_Buy</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/EButton_BuyClose/ELabel_BuyClose</t>
+  </si>
+  <si>
+    <t>收起</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/Text</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameBegin/EButton_GameBegin/EButton_GameBegin_txt</t>
+  </si>
+  <si>
+    <t>游戏开始</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameBegin/EButton_GameBegin/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerBegin/E_Effect/Effect_GameBegin/EButton_GameBegin/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_01/Text</t>
+  </si>
+  <si>
+    <t>回到房间</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_02/Text</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/EButton_GameEnd/ELabel_GameEnd</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>挑战结束</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_TowerBuy/ELabel_Content</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_TowerBuy/EButton_Buy/ELabel_Buy</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_TowerBuy/EButton_name</t>
+  </si>
+  <si>
+    <t>胜者抽卡</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/E_OperatorMenu/E_Sale/text</t>
+  </si>
+  <si>
+    <t>出售</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/E_OperatorMenu/E_Reclaim/text</t>
+  </si>
+  <si>
+    <t>回收</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/E_OperatorMenu/E_Upgrade/text</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/E_OperatorMenu/Image/E_TowerName</t>
+  </si>
+  <si>
+    <t>火焰塔</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/DlgBattleTowerSceneSlider/E_Slider/E_title</t>
+  </si>
+  <si>
+    <t>请选择整体大小</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/DlgBattleTowerSceneSlider/EButton_Next/ELabel_Next</t>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>DlgCommonConfirm/EGBackGround/Root/EG_Confirm/E_ConfirmCancel/Text</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>DlgCommonConfirm/EGBackGround/Root/EG_title/title</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_SingleMapMode/E_SingleMapText</t>
+  </si>
+  <si>
+    <t>全局地图模式</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_RoomMode/E_RoomModeText</t>
+  </si>
+  <si>
+    <t>房间模式</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_ARRoomMode/E_ARRoomModeText</t>
+  </si>
+  <si>
+    <t>AR房间模式</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_ReturnLogin/E_ReturnText</t>
+  </si>
+  <si>
+    <t>DlgLobby/EGBackGround/E_EnterMap/Text</t>
+  </si>
+  <si>
+    <t>进入地图</t>
+  </si>
+  <si>
+    <t>DlgLobby/EGBackGround/E_ReturnLogin/Text</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/E_Login/Text</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_RoomMemberStatus/ELable_RoomMemberStatus</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_QuitRoom/Text</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/RoomMemberList_title</t>
+  </si>
+  <si>
+    <t>一切就绪!!</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Room/ELabel_Content</t>
+  </si>
+  <si>
+    <t>滑动列表项</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_RoomMember/ELabel_Content_Name</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_RoomMember/EButton_Operator/ELabel_Operator</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Tower/ELabel_Name</t>
+  </si>
+  <si>
+    <t>idsuhciud哈哈哈12</t>
+  </si>
+  <si>
+    <t>防御塔装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <r>
+      <t>刷新(消耗金币:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金币:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/E_PVEName</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/title</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVP/title</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Avatar/E_PlayerName</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Backpack/Text (TMP)</t>
+  </si>
+  <si>
+    <t>卡包</t>
+  </si>
+  <si>
+    <t>最高存活{0}波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家名称1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgCommonConfirm/EGBackGround/Root/EG_Confirm/E_ConfirmSure/Text</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>DlgCommonConfirm/EGBackGround/Root/EG_Sure/E_Sure/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_1</t>
+  </si>
+  <si>
+    <t>存活&lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt;波</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_2</t>
+  </si>
+  <si>
+    <t>战胜{0}%的玩家</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>金币:10</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>炮塔名字</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Text (TMP)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>Re-login</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Place Headquarters</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Refresh (Cost: {0} coins)</t>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Coins: {0}</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Flame Tower</t>
+  </si>
+  <si>
+    <t>Select Overall Size</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Global Map Mode</t>
+  </si>
+  <si>
+    <t>Room Mode</t>
+  </si>
+  <si>
+    <t>AR Room Mode</t>
+  </si>
+  <si>
+    <t>Enter Map</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Slide List Item</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>idsuhciud Hahaha12</t>
+  </si>
+  <si>
+    <t>Player Name123</t>
+  </si>
+  <si>
+    <t>Card Pack</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; Waves</t>
+  </si>
+  <si>
+    <t>Defeated {0}% of Players</t>
+  </si>
+  <si>
+    <t>Coins: 10</t>
+  </si>
+  <si>
+    <t>Winner Draws a Card</t>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescan </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower Equipment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Set!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survived {0} Waves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinite Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Versus Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
+  </si>
+  <si>
+    <t>切换阵营</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
+  </si>
+  <si>
+    <t>选择关卡</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Sure/ELable_Sure</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Back/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_GameMode/Text</t>
+  </si>
+  <si>
+    <t>玩法:</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_TeamMode/Text</t>
+  </si>
+  <si>
+    <t>组队方式:</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/EButton_ReadyWhenRestTime/ELabel_ReadyWhenRestTime</t>
+  </si>
+  <si>
+    <t>我已准备好</t>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_CreateRoom/Text</t>
+  </si>
+  <si>
+    <t>创建房间</t>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_ReturnLogin/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_RefreshRoomList/Text</t>
+  </si>
+  <si>
+    <t>刷新房间列表</t>
+  </si>
+  <si>
+    <t>DlgLobby/EGBackGround/EButton_ChooseBattleCfg/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/E_Login_google/Text</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_QuitBattle/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch Camp</t>
+  </si>
+  <si>
+    <t>Select Level</t>
+  </si>
+  <si>
+    <t>Team Mode:</t>
+  </si>
+  <si>
+    <t>Create Room</t>
+  </si>
+  <si>
+    <t>Refresh Room List</t>
+  </si>
+  <si>
+    <t>Gameplay:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start the next wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌账号登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With Google</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Room/EButton_Join/ELabel_Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,16 +1243,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.21875" customWidth="1"/>
     <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
@@ -613,35 +1357,1080 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+      <c r="E96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymk/Documents/GitHub/ARTowerDefense/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB8C6C-753C-4B72-9089-1CCDA0E8AE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63697F2-FCA3-734F-912B-B45B581493D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="2180" windowWidth="29040" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="348">
   <si>
     <t>##var</t>
   </si>
@@ -334,13 +334,629 @@
   </si>
   <si>
     <r>
-      <t>刷新(消耗金币:</t>
+      <t>金币:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/E_PVEName</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/title</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVP/title</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Avatar/E_PlayerName</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Backpack/Text (TMP)</t>
+  </si>
+  <si>
+    <t>卡包</t>
+  </si>
+  <si>
+    <t>最高存活{0}波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家名称1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgCommonConfirm/EGBackGround/Root/EG_Confirm/E_ConfirmSure/Text</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>DlgCommonConfirm/EGBackGround/Root/EG_Sure/E_Sure/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>金币:10</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>炮塔名字</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Text (TMP)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>Re-login</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Place Headquarters</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Coins: {0}</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Flame Tower</t>
+  </si>
+  <si>
+    <t>Select Overall Size</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Global Map Mode</t>
+  </si>
+  <si>
+    <t>Room Mode</t>
+  </si>
+  <si>
+    <t>AR Room Mode</t>
+  </si>
+  <si>
+    <t>Enter Map</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Slide List Item</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>idsuhciud Hahaha12</t>
+  </si>
+  <si>
+    <t>Player Name123</t>
+  </si>
+  <si>
+    <t>Card Pack</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Coins: 10</t>
+  </si>
+  <si>
+    <t>Winner Draws a Card</t>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescan </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower Equipment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Set!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survived {0} Waves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinite Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
+  </si>
+  <si>
+    <t>切换阵营</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
+  </si>
+  <si>
+    <t>选择关卡</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Sure/ELable_Sure</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Back/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_GameMode/Text</t>
+  </si>
+  <si>
+    <t>玩法:</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_TeamMode/Text</t>
+  </si>
+  <si>
+    <t>组队方式:</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/EButton_ReadyWhenRestTime/ELabel_ReadyWhenRestTime</t>
+  </si>
+  <si>
+    <t>我已准备好</t>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_CreateRoom/Text</t>
+  </si>
+  <si>
+    <t>创建房间</t>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_ReturnLogin/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_RefreshRoomList/Text</t>
+  </si>
+  <si>
+    <t>刷新房间列表</t>
+  </si>
+  <si>
+    <t>DlgLobby/EGBackGround/EButton_ChooseBattleCfg/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/E_Login_google/Text</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_QuitBattle/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch Camp</t>
+  </si>
+  <si>
+    <t>Select Level</t>
+  </si>
+  <si>
+    <t>Team Mode:</t>
+  </si>
+  <si>
+    <t>Create Room</t>
+  </si>
+  <si>
+    <t>Refresh Room List</t>
+  </si>
+  <si>
+    <t>Gameplay:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌账号登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With Google</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Room/EButton_Join/ELabel_Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuidePanel/SkipNode/SkipText</t>
+  </si>
+  <si>
+    <t>跳过指引</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_RoomMemberStatus_Grey/ELable_Grey</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_RoomMemberStatus_Waiting/ELable_Waiting</t>
+  </si>
+  <si>
+    <t>Waiting to start</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_ShowQrCode/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/pvp/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/RoomMemberList_INVITE/title</t>
+  </si>
+  <si>
+    <t>INFINITE MODE</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/RoomMemberList_INVITE/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Hosted by</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_PutHome/ELabel_PutHome01</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_PutMonsterPoint/ELabel_PutMonsterPoint_01</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/ELabel_LeftMonsterWave01</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/ELabel_LeftTime01</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh01</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/Text (TMP)</t>
+  </si>
+  <si>
+    <t>get towers</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_LeftCallPlayerTowerCount01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_PutHomeAndMonsterPoint/EButton_PutHome/ELabel_PutHome01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_PutHomeAndMonsterPoint/EButton_PutMonsterPoint/ELabel_PutMonsterPoint_01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/GameObject/ELabel_TotalGold_01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/ELabel_LeftMonsterWave01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/ELabel_LeftTime01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/E_TowerBuyShow/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/E_LeftCallPlayerTowerCount01</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_1</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_2</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/E_SwitchPlayer/Text</t>
+  </si>
+  <si>
+    <t>切换用户</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_RoomMemberStatus_Grey/ELable_Grey</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_RoomMemberStatus_Waiting/ELable_Waiting</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_RoomMember/EG_None</t>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waiting to start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVITE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}v{1}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Wave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wave </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -351,487 +967,383 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金币:</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房主</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波数 {0}/{1}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存活&lt;color=#ffffff&gt;&lt;size=150&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>{0}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/E_PVEName</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/title</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVP/title</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Avatar/E_PlayerName</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Backpack/Text (TMP)</t>
-  </si>
-  <si>
-    <t>卡包</t>
-  </si>
-  <si>
-    <t>最高存活{0}波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对战模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>玩家名称1</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/size&gt;&lt;/color&gt;波</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; waves.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置大本营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置出怪口</t>
+  </si>
+  <si>
+    <t>放置出怪口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place Monster Spawn Point</t>
+  </si>
+  <si>
+    <t>Remaining Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可放置{0}个防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下波开始时间</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameBegin/EButton_GameBegin/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_01/Text12</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_02/Text12</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text12</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameEnd/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)01</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/Text_1</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/Text_2</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_join/E_ScanCode/title</t>
+  </si>
+  <si>
+    <t>Scan Code</t>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Challenge Complete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHALLENGE COMPLETE!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战结束！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>surviveed&lt;color=#FF6601&gt;&lt;size=150&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgCommonConfirm/EGBackGround/Root/EG_Confirm/E_ConfirmSure/Text</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>DlgCommonConfirm/EGBackGround/Root/EG_Sure/E_Sure/Text</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final (1)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_1</t>
-  </si>
-  <si>
-    <t>存活&lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt;波</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_2</t>
-  </si>
-  <si>
-    <t>战胜{0}%的玩家</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/txt</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>金币:10</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>炮塔名字</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Text (TMP)</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/title/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final (1)</t>
-  </si>
-  <si>
-    <t>Re-login</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>Place Headquarters</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Refresh (Cost: {0} coins)</t>
-  </si>
-  <si>
-    <t>Collapse</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Coins: {0}</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>Recycle</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>Flame Tower</t>
-  </si>
-  <si>
-    <t>Select Overall Size</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>Global Map Mode</t>
-  </si>
-  <si>
-    <t>Room Mode</t>
-  </si>
-  <si>
-    <t>AR Room Mode</t>
-  </si>
-  <si>
-    <t>Enter Map</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Slide List Item</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>idsuhciud Hahaha12</t>
-  </si>
-  <si>
-    <t>Player Name123</t>
-  </si>
-  <si>
-    <t>Card Pack</t>
-  </si>
-  <si>
-    <t>Victory</t>
-  </si>
-  <si>
-    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; Waves</t>
-  </si>
-  <si>
-    <t>Defeated {0}% of Players</t>
-  </si>
-  <si>
-    <t>Coins: 10</t>
-  </si>
-  <si>
-    <t>Winner Draws a Card</t>
-  </si>
-  <si>
-    <t>Locked</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rescan </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower Equipment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Over</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Tip</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s</t>
+      <t>&lt;/size&gt;&lt;/color&gt;waves</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>All Set!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survived {0} Waves</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infinite Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Versus Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
-  </si>
-  <si>
-    <t>切换阵营</t>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
-  </si>
-  <si>
-    <t>选择关卡</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Sure/ELable_Sure</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Back/Text</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_GameMode/Text</t>
-  </si>
-  <si>
-    <t>玩法:</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_TeamMode/Text</t>
-  </si>
-  <si>
-    <t>组队方式:</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/EButton_ReadyWhenRestTime/ELabel_ReadyWhenRestTime</t>
-  </si>
-  <si>
-    <t>我已准备好</t>
-  </si>
-  <si>
-    <t>DlgHall/EGBackGround/E_CreateRoom/Text</t>
-  </si>
-  <si>
-    <t>创建房间</t>
-  </si>
-  <si>
-    <t>DlgHall/EGBackGround/E_ReturnLogin/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgHall/EGBackGround/E_RefreshRoomList/Text</t>
-  </si>
-  <si>
-    <t>刷新房间列表</t>
-  </si>
-  <si>
-    <t>DlgLobby/EGBackGround/EButton_ChooseBattleCfg/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/E_Login_google/Text</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_QuitBattle/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch Camp</t>
-  </si>
-  <si>
-    <t>Select Level</t>
-  </si>
-  <si>
-    <t>Team Mode:</t>
-  </si>
-  <si>
-    <t>Create Room</t>
-  </si>
-  <si>
-    <t>Refresh Room List</t>
-  </si>
-  <si>
-    <t>Gameplay:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start the next wave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌账号登录</t>
+    <t>成功存活 &lt;color=#FF6601&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; 波</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Login</t>
+      <t>战胜{</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> With Google</t>
+      <t>0}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canvas (Environment)/Item_Room/EButton_Join/ELabel_Join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%的玩家</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜{0}%的玩家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/RoomMemberList/E_player</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/EG_OperatorMenu/E_Upgradeable/text</t>
+  </si>
+  <si>
+    <t>Max Level</t>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/RoomMemberList/E_player</t>
+  </si>
+  <si>
+    <t>Dlg_Personal_Information/EGBackGround/Root/EG_Confirm/E_ConfirmCancel/Text</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Dlg_Personal_Information/EGBackGround/Root/E_info/name/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Dlg_Personal_Information/EGBackGround/Root/EG_title/title</t>
+  </si>
+  <si>
+    <t>{0} player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 名玩家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROFILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerAR/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_Guest/Text</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_SDK/Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} </t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/Next/TextNext</t>
+  </si>
+  <si>
+    <t>Tap to continue</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/EG_Confirm/E_Save/Text</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/E_info/Avatar/title</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/E_info/name/E_InputField/Text Area/Text</t>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name​</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>姓名​</t>
+  </si>
+  <si>
+    <t>点击继续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PvP Battle</t>
+  </si>
+  <si>
+    <t>I'm Ready</t>
+  </si>
+  <si>
+    <t>Outperformed {0}% of all players</t>
+  </si>
+  <si>
+    <t>Skip the tutorial</t>
+  </si>
+  <si>
+    <t>You can still place {0} towers</t>
   </si>
 </sst>
 </file>
@@ -842,14 +1354,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -857,14 +1369,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -872,7 +1384,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -880,7 +1392,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -968,9 +1480,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,21 +1755,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.21875" customWidth="1"/>
-    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" customWidth="1"/>
+    <col min="3" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1803,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1837,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1867,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1363,10 +1875,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1374,10 +1886,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1396,10 +1908,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1407,10 +1919,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1418,10 +1930,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1429,10 +1941,10 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1440,21 +1952,21 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1462,10 +1974,10 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1473,10 +1985,10 @@
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1484,10 +1996,10 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +2010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1506,21 +2018,21 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1528,10 +2040,10 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1539,10 +2051,10 @@
         <v>95</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -1550,10 +2062,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1561,10 +2073,10 @@
         <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -1572,10 +2084,10 @@
         <v>40</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -1583,10 +2095,10 @@
         <v>44</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1594,10 +2106,10 @@
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -1605,10 +2117,10 @@
         <v>25</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>48</v>
       </c>
@@ -1616,21 +2128,21 @@
         <v>96</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -1638,10 +2150,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>54</v>
       </c>
@@ -1649,10 +2161,10 @@
         <v>97</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -1660,10 +2172,10 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -1671,10 +2183,10 @@
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>60</v>
       </c>
@@ -1682,10 +2194,10 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1693,10 +2205,10 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -1704,10 +2216,10 @@
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>66</v>
       </c>
@@ -1715,10 +2227,10 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>68</v>
       </c>
@@ -1726,32 +2238,32 @@
         <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="E38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>70</v>
       </c>
@@ -1759,10 +2271,10 @@
         <v>71</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>72</v>
       </c>
@@ -1770,10 +2282,10 @@
         <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>74</v>
       </c>
@@ -1781,10 +2293,10 @@
         <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>76</v>
       </c>
@@ -1792,10 +2304,10 @@
         <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>78</v>
       </c>
@@ -1803,10 +2315,10 @@
         <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -1814,10 +2326,10 @@
         <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -1825,10 +2337,10 @@
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>82</v>
       </c>
@@ -1836,10 +2348,10 @@
         <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>84</v>
       </c>
@@ -1847,10 +2359,10 @@
         <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>85</v>
       </c>
@@ -1858,10 +2370,10 @@
         <v>29</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -1869,10 +2381,10 @@
         <v>87</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -1880,10 +2392,10 @@
         <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -1891,10 +2403,10 @@
         <v>98</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>91</v>
       </c>
@@ -1902,10 +2414,10 @@
         <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>93</v>
       </c>
@@ -1913,524 +2425,1074 @@
         <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="E56" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="E57" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="E58" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>106</v>
       </c>
-      <c r="C59" t="s">
-        <v>107</v>
-      </c>
       <c r="E59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
         <v>51</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="E65" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
         <v>124</v>
       </c>
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E72" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
         <v>126</v>
       </c>
-      <c r="E68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="E75" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
         <v>126</v>
       </c>
-      <c r="E72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="E77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>135</v>
       </c>
-      <c r="C75" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>136</v>
       </c>
-      <c r="C76" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>139</v>
-      </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E79" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>140</v>
       </c>
-      <c r="C80" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>141</v>
       </c>
-      <c r="C81" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
         <v>144</v>
       </c>
-      <c r="C84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E108" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>281</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E130" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" t="s">
         <v>50</v>
       </c>
-      <c r="E85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" t="s">
-        <v>200</v>
-      </c>
-      <c r="E88" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" t="s">
-        <v>113</v>
-      </c>
-      <c r="E89" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" t="s">
-        <v>206</v>
-      </c>
-      <c r="E92" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>207</v>
-      </c>
-      <c r="C93" t="s">
-        <v>208</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>212</v>
-      </c>
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-      <c r="E96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" t="s">
-        <v>200</v>
-      </c>
-      <c r="E97" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" t="s">
-        <v>198</v>
-      </c>
-      <c r="E99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" t="s">
-        <v>200</v>
-      </c>
-      <c r="E100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>230</v>
+      <c r="E133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E138" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E140" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>311</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E142" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>314</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E143" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>316</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" t="s">
+        <v>327</v>
+      </c>
+      <c r="E145" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>325</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" t="s">
+        <v>336</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" t="s">
+        <v>337</v>
+      </c>
+      <c r="E150" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" t="s">
+        <v>338</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymk/Documents/GitHub/ARTowerDefense/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63697F2-FCA3-734F-912B-B45B581493D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D764F8-6578-41D0-A833-9E233963922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="2180" windowWidth="29040" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="330">
   <si>
     <t>##var</t>
   </si>
@@ -107,9 +107,6 @@
     <t>退出战斗</t>
   </si>
   <si>
-    <t>DlgARRoom/EGBackGround/E_RoomMemberStatus/ELable_RoomMemberStatus</t>
-  </si>
-  <si>
     <t>准备</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
     <t>退出房间</t>
   </si>
   <si>
-    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_PutHome/ELabel_PutHome</t>
-  </si>
-  <si>
-    <t>放置大本营</t>
-  </si>
-  <si>
     <t>DlgBattleTower/E_Battle/GameObject/ELabel_TotalGold</t>
   </si>
   <si>
@@ -137,12 +128,6 @@
     <t>DlgBattleTower/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh</t>
   </si>
   <si>
-    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/EButton_BuyClose/ELabel_BuyClose</t>
-  </si>
-  <si>
-    <t>收起</t>
-  </si>
-  <si>
     <t>DlgBattleTower/E_Battle/E_TowerBuyShow/Text</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>Canvas (Environment)/Effect_GameBegin/EButton_GameBegin/final</t>
   </si>
   <si>
-    <t>DlgBattleTowerBegin/E_Effect/Effect_GameBegin/EButton_GameBegin/final (1)</t>
-  </si>
-  <si>
     <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_01/Text</t>
   </si>
   <si>
@@ -197,12 +179,6 @@
     <t>胜者抽卡</t>
   </si>
   <si>
-    <t>DlgBattleTowerHUD/E_OperatorMenu/E_Sale/text</t>
-  </si>
-  <si>
-    <t>出售</t>
-  </si>
-  <si>
     <t>DlgBattleTowerHUD/E_OperatorMenu/E_Reclaim/text</t>
   </si>
   <si>
@@ -215,12 +191,6 @@
     <t>升级</t>
   </si>
   <si>
-    <t>DlgBattleTowerHUD/E_OperatorMenu/Image/E_TowerName</t>
-  </si>
-  <si>
-    <t>火焰塔</t>
-  </si>
-  <si>
     <t>Canvas (Environment)/DlgBattleTowerSceneSlider/E_Slider/E_title</t>
   </si>
   <si>
@@ -233,18 +203,6 @@
     <t>下一步</t>
   </si>
   <si>
-    <t>DlgCommonConfirm/EGBackGround/Root/EG_Confirm/E_ConfirmCancel/Text</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>DlgCommonConfirm/EGBackGround/Root/EG_title/title</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
     <t>DlgGameMode/EGBackGround/E_SingleMapMode/E_SingleMapText</t>
   </si>
   <si>
@@ -257,12 +215,6 @@
     <t>房间模式</t>
   </si>
   <si>
-    <t>DlgGameMode/EGBackGround/E_ARRoomMode/E_ARRoomModeText</t>
-  </si>
-  <si>
-    <t>AR房间模式</t>
-  </si>
-  <si>
     <t>DlgGameModeAR/E_HomePage/E_ReturnLogin/E_ReturnText</t>
   </si>
   <si>
@@ -284,36 +236,12 @@
     <t>DlgRoom/EGBackGround/E_RoomMemberStatus/ELable_RoomMemberStatus</t>
   </si>
   <si>
-    <t>DlgRoom/EGBackGround/E_QuitRoom/Text</t>
-  </si>
-  <si>
     <t>DlgRoom/EGBackGround/RoomMemberList_title</t>
   </si>
   <si>
     <t>一切就绪!!</t>
   </si>
   <si>
-    <t>Canvas (Environment)/Item_Room/ELabel_Content</t>
-  </si>
-  <si>
-    <t>滑动列表项</t>
-  </si>
-  <si>
-    <t>Canvas (Environment)/Item_RoomMember/ELabel_Content_Name</t>
-  </si>
-  <si>
-    <t>Canvas (Environment)/Item_RoomMember/EButton_Operator/ELabel_Operator</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>Canvas (Environment)/Item_Tower/ELabel_Name</t>
-  </si>
-  <si>
-    <t>idsuhciud哈哈哈12</t>
-  </si>
-  <si>
     <t>防御塔装备</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -323,10 +251,6 @@
   </si>
   <si>
     <t>防御塔名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -340,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -353,610 +277,352 @@
     <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/E_PVEName</t>
   </si>
   <si>
-    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVE/title</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_GameMode/E_PVP/title</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Avatar/E_PlayerName</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Backpack/Text (TMP)</t>
-  </si>
-  <si>
-    <t>卡包</t>
-  </si>
-  <si>
     <t>最高存活{0}波</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无限模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对战模式</t>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/txt</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>金币:10</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>炮塔名字</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Text (TMP)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final (1)</t>
+  </si>
+  <si>
+    <t>Re-login</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Coins: {0}</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Select Overall Size</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Global Map Mode</t>
+  </si>
+  <si>
+    <t>Room Mode</t>
+  </si>
+  <si>
+    <t>Enter Map</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Coins: 10</t>
+  </si>
+  <si>
+    <t>Winner Draws a Card</t>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescan </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Set!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survived {0} Waves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换阵营</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
+  </si>
+  <si>
+    <t>选择关卡</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Sure/ELable_Sure</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Back/Text</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_GameMode/Text</t>
+  </si>
+  <si>
+    <t>玩法:</t>
+  </si>
+  <si>
+    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_TeamMode/Text</t>
+  </si>
+  <si>
+    <t>组队方式:</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/EButton_ReadyWhenRestTime/ELabel_ReadyWhenRestTime</t>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_CreateRoom/Text</t>
+  </si>
+  <si>
+    <t>创建房间</t>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_ReturnLogin/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgHall/EGBackGround/E_RefreshRoomList/Text</t>
+  </si>
+  <si>
+    <t>刷新房间列表</t>
+  </si>
+  <si>
+    <t>DlgLobby/EGBackGround/EButton_ChooseBattleCfg/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_QuitBattle/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch Camp</t>
+  </si>
+  <si>
+    <t>Select Level</t>
+  </si>
+  <si>
+    <t>Team Mode:</t>
+  </si>
+  <si>
+    <t>Create Room</t>
+  </si>
+  <si>
+    <t>Refresh Room List</t>
+  </si>
+  <si>
+    <t>Gameplay:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_Room/EButton_Join/ELabel_Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuidePanel/SkipNode/SkipText</t>
+  </si>
+  <si>
+    <t>跳过指引</t>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_ShowQrCode/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/Text (TMP)</t>
+  </si>
+  <si>
+    <t>get towers</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_1</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_2</t>
+  </si>
+  <si>
+    <t>Canvas (Environment)/Item_RoomMember/EG_None</t>
+  </si>
+  <si>
+    <t>INVITE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房主</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得防御塔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>玩家名称1</t>
+      <t>存活&lt;color=#ffffff&gt;&lt;size=150&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgCommonConfirm/EGBackGround/Root/EG_Confirm/E_ConfirmSure/Text</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>DlgCommonConfirm/EGBackGround/Root/EG_Sure/E_Sure/Text</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVP/Effect_GameEnd/EButton_GameEnd_victory/final (1)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/final (1)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/txt</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>金币:10</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>炮塔名字</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1/Text (TMP)</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (1)/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/Card/Effect_Card1 (2)/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_lose/DrawCards/title/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1ELabel_Content</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_Buy/1ELabel_Buy</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Item_TowerBuy/1EButton_name</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/DrawCards (1)/Card/Effect_Card1/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_PVE/Effect_GameEnd_Model/EButton_GameEnd_victory/final (1)</t>
-  </si>
-  <si>
-    <t>Re-login</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>Place Headquarters</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Collapse</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Coins: {0}</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>Recycle</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>Flame Tower</t>
-  </si>
-  <si>
-    <t>Select Overall Size</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>Global Map Mode</t>
-  </si>
-  <si>
-    <t>Room Mode</t>
-  </si>
-  <si>
-    <t>AR Room Mode</t>
-  </si>
-  <si>
-    <t>Enter Map</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Slide List Item</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>idsuhciud Hahaha12</t>
-  </si>
-  <si>
-    <t>Player Name123</t>
-  </si>
-  <si>
-    <t>Card Pack</t>
-  </si>
-  <si>
-    <t>Victory</t>
-  </si>
-  <si>
-    <t>Coins: 10</t>
-  </si>
-  <si>
-    <t>Winner Draws a Card</t>
-  </si>
-  <si>
-    <t>Locked</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rescan </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower Equipment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Over</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Tip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Set!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survived {0} Waves</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infinite Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
-  </si>
-  <si>
-    <t>切换阵营</t>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
-  </si>
-  <si>
-    <t>选择关卡</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Sure/ELable_Sure</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Back/Text</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_GameMode/Text</t>
-  </si>
-  <si>
-    <t>玩法:</t>
-  </si>
-  <si>
-    <t>DlgBattleCfgChoose/EGBackGround/E_Menu/E_TeamMode/Text</t>
-  </si>
-  <si>
-    <t>组队方式:</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/EButton_ReadyWhenRestTime/ELabel_ReadyWhenRestTime</t>
-  </si>
-  <si>
-    <t>我已准备好</t>
-  </si>
-  <si>
-    <t>DlgHall/EGBackGround/E_CreateRoom/Text</t>
-  </si>
-  <si>
-    <t>创建房间</t>
-  </si>
-  <si>
-    <t>DlgHall/EGBackGround/E_ReturnLogin/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgHall/EGBackGround/E_RefreshRoomList/Text</t>
-  </si>
-  <si>
-    <t>刷新房间列表</t>
-  </si>
-  <si>
-    <t>DlgLobby/EGBackGround/EButton_ChooseBattleCfg/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/E_Login_google/Text</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/E_RoomMemberChgTeam/ELable_RoomMemberChgTeam</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/EG_ChooseBattleCfg/EButton_ChooseBattleCfg/Text</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_QuitBattle/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch Camp</t>
-  </si>
-  <si>
-    <t>Select Level</t>
-  </si>
-  <si>
-    <t>Team Mode:</t>
-  </si>
-  <si>
-    <t>Create Room</t>
-  </si>
-  <si>
-    <t>Refresh Room List</t>
-  </si>
-  <si>
-    <t>Gameplay:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌账号登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> With Google</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canvas (Environment)/Item_Room/EButton_Join/ELabel_Join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuidePanel/SkipNode/SkipText</t>
-  </si>
-  <si>
-    <t>跳过指引</t>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_RoomMemberStatus_Grey/ELable_Grey</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_RoomMemberStatus_Waiting/ELable_Waiting</t>
-  </si>
-  <si>
-    <t>Waiting to start</t>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_ShowQrCode/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/pvp/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/RoomMemberList_INVITE/title</t>
-  </si>
-  <si>
-    <t>INFINITE MODE</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/RoomMemberList_INVITE/Text (TMP)</t>
-  </si>
-  <si>
-    <t>Hosted by</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_PutHome/ELabel_PutHome01</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_PutMonsterPoint/ELabel_PutMonsterPoint_01</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/ELabel_LeftMonsterWave01</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/ELabel_LeftTime01</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh01</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/E_TowerBuyShow/Text (TMP)</t>
-  </si>
-  <si>
-    <t>get towers</t>
-  </si>
-  <si>
-    <t>DlgBattleTower/E_Battle/E_LeftCallPlayerTowerCount01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_PutHomeAndMonsterPoint/EButton_PutHome/ELabel_PutHome01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_PutHomeAndMonsterPoint/EButton_PutMonsterPoint/ELabel_PutMonsterPoint_01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_Battle/GameObject/ELabel_TotalGold_01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_Battle/ELabel_LeftMonsterWave01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_Battle/ELabel_LeftTime01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_Battle/E_TowerBuyShow/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerAR/E_Battle/E_LeftCallPlayerTowerCount01</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_1</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_2</t>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/E_SwitchPlayer/Text</t>
-  </si>
-  <si>
-    <t>切换用户</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/E_RoomMemberStatus_Grey/ELable_Grey</t>
-  </si>
-  <si>
-    <t>DlgRoom/EGBackGround/E_RoomMemberStatus_Waiting/ELable_Waiting</t>
-  </si>
-  <si>
-    <t>Canvas (Environment)/Item_RoomMember/EG_None</t>
-  </si>
-  <si>
-    <t>START</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waiting to start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVITE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}v{1}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Wave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Wave </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -967,70 +633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vacant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>空缺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房主</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波数 {0}/{1}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>存活&lt;color=#ffffff&gt;&lt;size=150&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1044,56 +647,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Switch user</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置大本营</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置出怪口</t>
-  </si>
-  <si>
-    <t>放置出怪口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Place Monster Spawn Point</t>
-  </si>
-  <si>
-    <t>Remaining Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>还可放置{0}个防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下波开始时间</t>
-  </si>
-  <si>
     <t>Canvas (Environment)/Effect_GameBegin/EButton_GameBegin/final (1)</t>
   </si>
   <si>
-    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_01/Text12</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom_Next/E_btn_02/Text12</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text12</t>
-  </si>
-  <si>
-    <t>Quit</t>
-  </si>
-  <si>
     <t>Canvas (Environment)/Effect_GameEnd/EButton_GameEnd_lose/txt</t>
   </si>
   <si>
@@ -1115,21 +671,6 @@
     <t>DlgGameModeAR/E_HomePage/E_play/E_join/E_ScanCode/title</t>
   </si>
   <si>
-    <t>Scan Code</t>
-  </si>
-  <si>
-    <t>房间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Failure</t>
   </si>
   <si>
@@ -1142,38 +683,6 @@
   </si>
   <si>
     <t>挑战结束！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>surviveed&lt;color=#FF6601&gt;&lt;size=150&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/size&gt;&lt;/color&gt;waves</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功存活 &lt;color=#FF6601&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; 波</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1184,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1195,7 +704,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1213,18 +722,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DlgARRoom/EGBackGround/RoomMemberList/E_player</t>
-  </si>
-  <si>
     <t>DlgBattleTowerHUD/EG_OperatorMenu/E_Upgradeable/text</t>
   </si>
   <si>
     <t>Max Level</t>
   </si>
   <si>
-    <t>DlgRoom/EGBackGround/RoomMemberList/E_player</t>
-  </si>
-  <si>
     <t>Dlg_Personal_Information/EGBackGround/Root/EG_Confirm/E_ConfirmCancel/Text</t>
   </si>
   <si>
@@ -1240,14 +743,6 @@
     <t>Dlg_Personal_Information/EGBackGround/Root/EG_title/title</t>
   </si>
   <si>
-    <t>{0} player</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 名玩家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>满级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1268,24 +763,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DlgBattleTowerAR/E_Battle/E_TowerBuyShow/EButton_Refresh/ELabel_Refresh</t>
-  </si>
-  <si>
     <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_Guest/Text</t>
   </si>
   <si>
     <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_SDK/Text</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} </t>
-  </si>
-  <si>
-    <t>DlgBeginnersGuideStory/Next/TextNext</t>
-  </si>
-  <si>
-    <t>Tap to continue</t>
-  </si>
-  <si>
     <t>DlgPersonalInformation/EGBackGround/Root/EG_Confirm/E_Save/Text</t>
   </si>
   <si>
@@ -1315,10 +798,6 @@
     <t>姓名​</t>
   </si>
   <si>
-    <t>点击继续</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开始游戏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1331,37 +810,364 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PvP Battle</t>
-  </si>
-  <si>
-    <t>I'm Ready</t>
-  </si>
-  <si>
     <t>Outperformed {0}% of all players</t>
   </si>
   <si>
     <t>Skip the tutorial</t>
   </si>
   <si>
-    <t>You can still place {0} towers</t>
+    <t>Next</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surviveed&lt;size=40&gt;{0}&lt;/size&gt;waves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功存活&lt;size=40&gt;{0}&lt;/size&gt; 波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgVideoShow/Sprite_BackGround/E_TextContext</t>
+  </si>
+  <si>
+    <t>Find an empty surface, then set up some obstacles to construct a easily defendable terrain. Survey the area with your phone camera.</t>
+  </si>
+  <si>
+    <t>找一个空旷的表面，然后设置一些障碍物，构建一个易于防御的地形。用手机摄像头拍摄扫描该区域。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_PVP/locking/Text</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_join/locking/Text</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story1/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story2/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story3/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story4/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story5/TextContext</t>
+  </si>
+  <si>
+    <t>Evil spirits from a parallel realm have breached the boundaries of our reality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They lurk in unseen dimensions, wreaking havoc on our homeland. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortunately, our top scientists have come up with "Space-Time Defense Towers" that put an end to their shenanigans. </t>
+  </si>
+  <si>
+    <t>Commander, annihilate the invaders and protect the world!</t>
+  </si>
+  <si>
+    <t>Find an empty surface, then set up some obstacles to construct a easily defendable terrain. Survey the area with your phone camera.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵从另一个平行空间侵入现实世界。</t>
+  </si>
+  <si>
+    <t>它们潜伏在看不见的位面中，肆虐着我们的家园。</t>
+  </si>
+  <si>
+    <t>幸运的是，科学家们设计出了“时空防御塔”，阻止它们作乱。</t>
+  </si>
+  <si>
+    <t>指挥官，歼灭入侵者，保卫世界！</t>
+  </si>
+  <si>
+    <t>找一个空旷的表面（桌面或地面）。设置一些障碍物，构建一个易守的战场。</t>
+  </si>
+  <si>
+    <t>Effect_GameEnd/EButton_ChallengeMode_victory/title</t>
+  </si>
+  <si>
+    <t>ChallengeMode</t>
+  </si>
+  <si>
+    <t>挑战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/EG_OperatorMenu/OperatorRoot/Sell/EButton_Sale/text</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/EG_OperatorMenu/OperatorRoot/Sell/EButton_Confirm/text</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_ARRoomModeCreate/E_ARRoomModeCreateText</t>
+  </si>
+  <si>
+    <t>AR创建房间</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_ARRoomModeJoin/E_ARRoomModeJoinText</t>
+  </si>
+  <si>
+    <t>AR加入</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/title</t>
+  </si>
+  <si>
+    <t>Infinite Mode</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/ELabel_Waves</t>
+  </si>
+  <si>
+    <t>Survived {0} waves</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/ELabel_Rank</t>
+  </si>
+  <si>
+    <t>World #{0}</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_PVE/title</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>无尽模式</t>
+  </si>
+  <si>
+    <t>存活 {0} 波</t>
+  </si>
+  <si>
+    <t>挑战</t>
+  </si>
+  <si>
+    <t>世界排名 #{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>AR Create Room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR Join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_tutorial/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Rank/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text01</t>
+  </si>
+  <si>
+    <t>You need</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text02</t>
+  </si>
+  <si>
+    <t>to play.</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/IndividualRank/Ranked</t>
+  </si>
+  <si>
+    <t>Ranked</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/AllPlayersRank/title</t>
+  </si>
+  <si>
+    <t>Most Waves Survived in Infinite Mode</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/Leaderboard/ELabel_EmptyLeaderbord</t>
+  </si>
+  <si>
+    <t>Leaderboard's looking lonely.</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>你需要</t>
+  </si>
+  <si>
+    <t>进行游戏。</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>在无尽模式中存活最多波次</t>
+  </si>
+  <si>
+    <t>还没有人上榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info012/Text01</t>
+  </si>
+  <si>
+    <t>Regain</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info012/ELabel_RecoverLeftTIme2</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info022/Text01</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info022/Text03</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
+  </si>
+  <si>
+    <t>Watch ad</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
+  </si>
+  <si>
+    <t>Recharge energy</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/E_info01/Text01</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/E_info01/ELabel_RecoverLeftTIme</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/EG_title/E_TitleText</t>
+  </si>
+  <si>
+    <t>Insufficient energy</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/EG_title/E_TitleText</t>
+  </si>
+  <si>
+    <t>in {0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in  {0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
+    <t>观看广告</t>
+  </si>
+  <si>
+    <t>能量不足</t>
+  </si>
+  <si>
+    <t>在 {0}后</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/Hot updates/ProgressPrarent/Processing/Text</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/Hot updates/txt_updates</t>
+  </si>
+  <si>
+    <t>Checking updates...</t>
+  </si>
+  <si>
+    <t>检查更新…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downloading {0}/{1} MB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载中 {0}/{1} MB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始下一波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Cards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1369,14 +1175,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1384,7 +1190,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1392,8 +1198,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1464,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1478,13 +1292,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1755,17 +1581,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" customWidth="1"/>
-    <col min="3" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="3" max="4" width="32.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1875,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1886,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1894,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1908,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1919,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1930,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1941,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1952,40 +1778,40 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>176</v>
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1996,7 +1822,7 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -2004,32 +1830,32 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>99</v>
+      <c r="E18" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -2037,21 +1863,21 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -2061,8 +1887,8 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>175</v>
+      <c r="E21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -2070,153 +1896,153 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
+      <c r="C23" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>179</v>
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>150</v>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>180</v>
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>181</v>
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2053,7 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -2235,469 +2061,469 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" t="s">
-        <v>158</v>
+        <v>70</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>158</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" t="s">
-        <v>161</v>
+        <v>45</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
+        <v>45</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" t="s">
-        <v>162</v>
+        <v>43</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" t="s">
-        <v>163</v>
+        <v>31</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
+        <v>89</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>176</v>
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>183</v>
+      <c r="E50" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" t="s">
-        <v>164</v>
+        <v>31</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
         <v>91</v>
       </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>343</v>
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>168</v>
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" t="s">
-        <v>170</v>
+        <v>89</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>179</v>
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>179</v>
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>186</v>
+        <v>142</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>180</v>
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>171</v>
+        <v>149</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>129</v>
+      <c r="B72" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>187</v>
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>131</v>
+      <c r="B74" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>180</v>
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>124</v>
+      <c r="B76" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
+        <v>170</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E79" t="s">
         <v>171</v>
@@ -2705,798 +2531,622 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" t="s">
-        <v>34</v>
+        <v>172</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" t="s">
-        <v>124</v>
+        <v>173</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E83" t="s">
-        <v>170</v>
+        <v>21</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" t="s">
-        <v>211</v>
+        <v>45</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" t="s">
-        <v>158</v>
+        <v>187</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" t="s">
-        <v>144</v>
+        <v>188</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>195</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" t="s">
-        <v>212</v>
+      <c r="E90" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>198</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" t="s">
         <v>199</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>200</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
         <v>201</v>
       </c>
-      <c r="E92" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="8" t="s">
+      <c r="B93" t="s">
         <v>202</v>
       </c>
-      <c r="C93" t="s">
-        <v>23</v>
+      <c r="C93" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" t="s">
         <v>204</v>
       </c>
-      <c r="E94" t="s">
-        <v>214</v>
+      <c r="C94" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C95" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95" t="s">
-        <v>211</v>
+      <c r="B95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" t="s">
-        <v>210</v>
+        <v>218</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>219</v>
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>258</v>
+        <v>237</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>228</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>262</v>
+        <v>238</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E105" t="s">
-        <v>230</v>
+        <v>239</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E106" t="s">
-        <v>232</v>
+        <v>240</v>
+      </c>
+      <c r="C106" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E107" t="s">
-        <v>146</v>
+        <v>241</v>
+      </c>
+      <c r="C107" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>273</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>278</v>
+        <v>256</v>
+      </c>
+      <c r="C110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" t="s">
-        <v>99</v>
+        <v>258</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E112" t="s">
-        <v>239</v>
+        <v>259</v>
+      </c>
+      <c r="C112" t="s">
+        <v>260</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>240</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>347</v>
+        <v>261</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>242</v>
-      </c>
-      <c r="C115" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="C116" t="s">
+        <v>271</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>244</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>264</v>
+        <v>277</v>
+      </c>
+      <c r="C117" t="s">
+        <v>291</v>
+      </c>
+      <c r="E117" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" t="s">
         <v>280</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="E119" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>247</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>269</v>
+        <v>283</v>
+      </c>
+      <c r="C120" t="s">
+        <v>293</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>248</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>347</v>
+        <v>285</v>
+      </c>
+      <c r="C121" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>249</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>272</v>
+        <v>287</v>
+      </c>
+      <c r="C122" t="s">
+        <v>295</v>
+      </c>
+      <c r="E122" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="E123" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>251</v>
-      </c>
-      <c r="C124" t="s">
-        <v>252</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>273</v>
+        <v>298</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E124" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E125" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>260</v>
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>316</v>
       </c>
       <c r="E126" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>265</v>
+        <v>303</v>
+      </c>
+      <c r="E127" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>175</v>
+        <v>317</v>
+      </c>
+      <c r="E128" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="E130" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E131" t="s">
-        <v>287</v>
+        <v>319</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="E132" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>290</v>
-      </c>
-      <c r="C134" t="s">
-        <v>51</v>
+        <v>321</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>293</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E138" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>309</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E140" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>311</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>312</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E142" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>314</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E143" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>316</v>
-      </c>
-      <c r="C144" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E135" t="s">
         <v>323</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>324</v>
-      </c>
-      <c r="C145" t="s">
-        <v>327</v>
-      </c>
-      <c r="E145" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>325</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>326</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>330</v>
-      </c>
-      <c r="C149" t="s">
-        <v>336</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>331</v>
-      </c>
-      <c r="C150" t="s">
-        <v>337</v>
-      </c>
-      <c r="E150" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>333</v>
-      </c>
-      <c r="C151" t="s">
-        <v>338</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D764F8-6578-41D0-A833-9E233963922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558B01C-654C-4CBD-AD68-9E957663AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="330">
   <si>
     <t>##var</t>
   </si>
@@ -152,9 +152,6 @@
     <t>首页</t>
   </si>
   <si>
-    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
-  </si>
-  <si>
     <t>DlgBattleTowerEnd/E_Root/EButton_GameEnd/ELabel_GameEnd</t>
   </si>
   <si>
@@ -191,16 +188,7 @@
     <t>升级</t>
   </si>
   <si>
-    <t>Canvas (Environment)/DlgBattleTowerSceneSlider/E_Slider/E_title</t>
-  </si>
-  <si>
     <t>请选择整体大小</t>
-  </si>
-  <si>
-    <t>Canvas (Environment)/DlgBattleTowerSceneSlider/EButton_Next/ELabel_Next</t>
-  </si>
-  <si>
-    <t>下一步</t>
   </si>
   <si>
     <t>DlgGameMode/EGBackGround/E_SingleMapMode/E_SingleMapText</t>
@@ -401,9 +389,6 @@
     <t>Select Overall Size</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
     <t>Confirm</t>
   </si>
   <si>
@@ -604,10 +589,6 @@
   </si>
   <si>
     <t>空缺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房主</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -816,10 +797,6 @@
     <t>Skip the tutorial</t>
   </si>
   <si>
-    <t>Next</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>surviveed&lt;size=40&gt;{0}&lt;/size&gt;waves</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -831,13 +808,6 @@
     <t>DlgVideoShow/Sprite_BackGround/E_TextContext</t>
   </si>
   <si>
-    <t>Find an empty surface, then set up some obstacles to construct a easily defendable terrain. Survey the area with your phone camera.</t>
-  </si>
-  <si>
-    <t>找一个空旷的表面，然后设置一些障碍物，构建一个易于防御的地形。用手机摄像头拍摄扫描该区域。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PVP Mode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -883,10 +853,6 @@
     <t>Commander, annihilate the invaders and protect the world!</t>
   </si>
   <si>
-    <t>Find an empty surface, then set up some obstacles to construct a easily defendable terrain. Survey the area with your phone camera.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>恶灵从另一个平行空间侵入现实世界。</t>
   </si>
   <si>
@@ -899,9 +865,6 @@
     <t>指挥官，歼灭入侵者，保卫世界！</t>
   </si>
   <si>
-    <t>找一个空旷的表面（桌面或地面）。设置一些障碍物，构建一个易守的战场。</t>
-  </si>
-  <si>
     <t>Effect_GameEnd/EButton_ChallengeMode_victory/title</t>
   </si>
   <si>
@@ -990,9 +953,6 @@
     <t>DlgGameModeAR/E_HomePage/E_Function/E_Rank/Text (TMP)</t>
   </si>
   <si>
-    <t>Leader</t>
-  </si>
-  <si>
     <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text01</t>
   </si>
   <si>
@@ -1149,6 +1109,54 @@
   </si>
   <si>
     <t>Get Cards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Cards/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARSceneSlider/E_Slider/E_title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重扫战场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_Rescan/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESCAN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1581,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1701,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1712,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1720,10 +1728,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1734,7 +1742,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1745,7 +1753,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1756,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1767,7 +1775,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1778,18 +1786,18 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1800,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1808,10 +1816,10 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1822,7 +1830,7 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1830,10 +1838,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -1841,10 +1849,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -1855,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -1866,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -1877,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -1888,257 +1896,257 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
+      <c r="B22" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" t="s">
         <v>53</v>
       </c>
-      <c r="E28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>110</v>
+        <v>66</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>138</v>
+      <c r="E40" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
-      <c r="E42" t="s">
-        <v>125</v>
+      <c r="E42" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>133</v>
@@ -2146,32 +2154,32 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>138</v>
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>134</v>
@@ -2179,43 +2187,43 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>134</v>
@@ -2223,43 +2231,43 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>134</v>
@@ -2267,54 +2275,54 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>134</v>
@@ -2322,824 +2330,826 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" t="s">
-        <v>109</v>
+        <v>141</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>163</v>
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>168</v>
-      </c>
       <c r="E77" s="8" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="C86" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="E89" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="E90" s="8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
         <v>212</v>
       </c>
-      <c r="C97" t="s">
-        <v>218</v>
-      </c>
       <c r="E97" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
         <v>213</v>
       </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
       <c r="E98" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="E103" s="9" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>248</v>
-      </c>
       <c r="E104" s="9" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="E105" s="9" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" t="s">
         <v>240</v>
       </c>
-      <c r="C106" t="s">
-        <v>250</v>
-      </c>
       <c r="E106" s="9" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107" t="s">
-        <v>251</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E109" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C110" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C111" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E113" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E115" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C116" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E116" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E118" t="s">
-        <v>280</v>
+        <v>318</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>281</v>
-      </c>
-      <c r="C119" t="s">
-        <v>292</v>
-      </c>
-      <c r="E119" t="s">
-        <v>282</v>
+        <v>320</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E120" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>289</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>296</v>
+        <v>275</v>
+      </c>
+      <c r="C123" t="s">
+        <v>283</v>
       </c>
       <c r="E123" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="E124" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
+      </c>
+      <c r="E125" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>301</v>
-      </c>
-      <c r="C126" t="s">
-        <v>316</v>
-      </c>
-      <c r="E126" t="s">
+        <v>288</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E126" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>303</v>
+        <v>289</v>
+      </c>
+      <c r="C127" t="s">
+        <v>304</v>
       </c>
       <c r="E127" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>305</v>
-      </c>
-      <c r="C128" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E128" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>307</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="C129" t="s">
+        <v>305</v>
       </c>
       <c r="E129" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="E130" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="E131" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" t="s">
-        <v>318</v>
-      </c>
-      <c r="E132" t="s">
-        <v>312</v>
+        <v>298</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C133" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E133" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>321</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>325</v>
+        <v>301</v>
+      </c>
+      <c r="C134" t="s">
+        <v>306</v>
+      </c>
+      <c r="E134" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E135" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E136" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558B01C-654C-4CBD-AD68-9E957663AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B3021-178C-4F7C-892C-595FEE5E81CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="333">
   <si>
     <t>##var</t>
   </si>
@@ -1157,6 +1157,18 @@
   </si>
   <si>
     <t>RESCAN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/E_LoggingText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录中…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging in…</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1319,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1589,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3152,10 +3184,22 @@
         <v>311</v>
       </c>
     </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E137" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B3021-178C-4F7C-892C-595FEE5E81CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7615C-78E1-4576-AF5E-65B4A8DCD056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="336">
   <si>
     <t>##var</t>
   </si>
@@ -1030,15 +1030,9 @@
     <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
   </si>
   <si>
-    <t>Watch ad</t>
-  </si>
-  <si>
     <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
   </si>
   <si>
-    <t>Recharge energy</t>
-  </si>
-  <si>
     <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/E_info01/Text01</t>
   </si>
   <si>
@@ -1169,6 +1163,25 @@
   </si>
   <si>
     <t>Logging in…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel  /E_function/E_Function/E_BattleDeck/Text (TMP)</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch ads</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recharge Energy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1319,17 +1332,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1621,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1887,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -1933,13 +1936,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -2010,7 +2013,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -2453,10 +2456,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -2538,13 +2541,13 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -2983,223 +2986,234 @@
         <v>268</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>269</v>
-      </c>
-      <c r="C120" t="s">
-        <v>280</v>
-      </c>
-      <c r="E120" t="s">
-        <v>270</v>
+        <v>331</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E121" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E122" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>277</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>284</v>
+        <v>275</v>
+      </c>
+      <c r="C124" t="s">
+        <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E125" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+      <c r="E126" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>289</v>
-      </c>
-      <c r="C127" t="s">
-        <v>304</v>
-      </c>
-      <c r="E127" t="s">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="C128" t="s">
+        <v>302</v>
       </c>
       <c r="E128" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>293</v>
-      </c>
-      <c r="C129" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E129" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
+      </c>
+      <c r="C130" t="s">
+        <v>303</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E131" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+      <c r="E132" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>299</v>
-      </c>
-      <c r="C133" t="s">
-        <v>306</v>
-      </c>
-      <c r="E133" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C134" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E134" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>309</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>313</v>
+        <v>299</v>
+      </c>
+      <c r="C135" t="s">
+        <v>304</v>
+      </c>
+      <c r="E135" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>308</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>328</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E138" t="s">
         <v>330</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E137" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7615C-78E1-4576-AF5E-65B4A8DCD056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623160F6-7A33-4D69-829A-6F50EB6FB59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="350">
   <si>
     <t>##var</t>
   </si>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t>一切就绪!!</t>
-  </si>
-  <si>
-    <t>防御塔装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战斗结束</t>
@@ -649,9 +645,6 @@
     <t>Canvas (Environment)/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/Text_2</t>
   </si>
   <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_join/E_ScanCode/title</t>
-  </si>
-  <si>
     <t>Failure</t>
   </si>
   <si>
@@ -695,10 +688,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>扫描二维码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战胜{0}%的玩家</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1006,73 +995,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info012/Text01</t>
-  </si>
-  <si>
-    <t>Regain</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info012/ELabel_RecoverLeftTIme2</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info022/Text01</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/E_info022/Text03</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
     <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
   </si>
   <si>
     <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
   </si>
   <si>
-    <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/E_info01/Text01</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/E_info01/ELabel_RecoverLeftTIme</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength02/EGBackGround/PhysicalStrength02/EG_title/E_TitleText</t>
-  </si>
-  <si>
     <t>Insufficient energy</t>
   </si>
   <si>
     <t>DlgPhysicalStrengthTip/EGBackGround/tips/EG_title/E_TitleText</t>
   </si>
   <si>
-    <t>in {0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>in  {0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得</t>
-  </si>
-  <si>
     <t>观看广告</t>
   </si>
   <si>
     <t>能量不足</t>
   </si>
   <si>
-    <t>在 {0}后</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgLogin/Sprite_BackGround/Hot updates/ProgressPrarent/Processing/Text</t>
   </si>
   <si>
@@ -1182,6 +1122,124 @@
   </si>
   <si>
     <t>Recharge Energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_ScanCode/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_MasterScanMesh/Text (TMP)</t>
+  </si>
+  <si>
+    <t>扫描地形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan Mesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_PVP/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_ScanCode/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join a room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_CancelButton/ELabel_Cancel</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_TowerBuy/EImage_TowerBuyShow/EImage_Purchased/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_ConfirmButton/ELabel_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgArcadeCoin/EGBackGround/Root/EButton_OK/text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Music/text</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Audio/text</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Damage/text</t>
+  </si>
+  <si>
+    <t>伤害数字</t>
+  </si>
+  <si>
+    <t>DamageShow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1624,21 +1682,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1730,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1764,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1794,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1744,10 +1802,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1755,21 +1813,21 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1777,10 +1835,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1788,10 +1846,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1799,10 +1857,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1810,10 +1868,10 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1821,21 +1879,21 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1843,21 +1901,21 @@
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1865,32 +1923,32 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1898,10 +1956,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1909,10 +1967,10 @@
         <v>35</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -1920,10 +1978,10 @@
         <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -1931,43 +1989,43 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1975,21 +2033,21 @@
         <v>31</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -1997,10 +2055,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -2008,21 +2066,21 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>54</v>
       </c>
@@ -2030,10 +2088,10 @@
         <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -2041,10 +2099,10 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -2052,10 +2110,10 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -2063,10 +2121,10 @@
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>61</v>
       </c>
@@ -2074,10 +2132,10 @@
         <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -2085,10 +2143,10 @@
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2096,10 +2154,10 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -2107,1111 +2165,1162 @@
         <v>66</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>82</v>
-      </c>
-      <c r="E45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>83</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>86</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="E48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>91</v>
       </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>94</v>
       </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>96</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
         <v>136</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>137</v>
       </c>
-      <c r="E64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>139</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
         <v>140</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>142</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>143</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C69" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="E70" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>150</v>
       </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>151</v>
-      </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="8" t="s">
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>162</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>163</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="C78" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="8" t="s">
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>177</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
         <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
         <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
         <v>44</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+      <c r="E87" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E87" s="8" t="s">
+      <c r="C88" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="E89" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>221</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E90" s="8" t="s">
+      <c r="C102" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>204</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" t="s">
-        <v>212</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>222</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+      <c r="C103" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="E103" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>227</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="C106" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>228</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C107" t="s">
         <v>237</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E107" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>238</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="C109" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" t="s">
         <v>239</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" t="s">
-        <v>240</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C110" t="s">
+        <v>259</v>
+      </c>
+      <c r="E110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" t="s">
+        <v>260</v>
+      </c>
+      <c r="E111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>243</v>
       </c>
-      <c r="E108" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+      <c r="C112" t="s">
         <v>244</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E112" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" t="s">
+        <v>255</v>
+      </c>
+      <c r="E114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>263</v>
       </c>
-      <c r="E110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" t="s">
-        <v>247</v>
-      </c>
-      <c r="E111" s="8" t="s">
+      <c r="C118" t="s">
+        <v>276</v>
+      </c>
+      <c r="E118" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" t="s">
-        <v>249</v>
-      </c>
-      <c r="E112" s="8" t="s">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" t="s">
-        <v>258</v>
-      </c>
-      <c r="E113" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" t="s">
-        <v>259</v>
-      </c>
-      <c r="E114" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" t="s">
-        <v>260</v>
-      </c>
-      <c r="E116" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+      <c r="C119" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>266</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C122" t="s">
+        <v>277</v>
+      </c>
+      <c r="E122" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
         <v>279</v>
       </c>
-      <c r="E117" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>268</v>
-      </c>
-      <c r="C118" s="8" t="s">
+      <c r="E124" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" t="s">
+        <v>287</v>
+      </c>
+      <c r="E127" t="s">
         <v>316</v>
       </c>
-      <c r="E118" s="8" t="s">
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E128" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" t="s">
+        <v>288</v>
+      </c>
+      <c r="E129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E131" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E132" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>318</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C133" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>320</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>325</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E136" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>331</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>269</v>
-      </c>
-      <c r="C121" t="s">
-        <v>280</v>
-      </c>
-      <c r="E121" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" t="s">
-        <v>281</v>
-      </c>
-      <c r="E122" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>273</v>
-      </c>
-      <c r="C123" t="s">
-        <v>282</v>
-      </c>
-      <c r="E123" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>275</v>
-      </c>
-      <c r="C124" t="s">
-        <v>283</v>
-      </c>
-      <c r="E124" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>277</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E125" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>286</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>289</v>
-      </c>
-      <c r="C128" t="s">
-        <v>302</v>
-      </c>
-      <c r="E128" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>291</v>
-      </c>
-      <c r="E129" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>293</v>
-      </c>
-      <c r="C130" t="s">
-        <v>303</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C138" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E131" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>295</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E132" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>297</v>
-      </c>
-      <c r="C134" t="s">
-        <v>304</v>
-      </c>
-      <c r="E134" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>299</v>
-      </c>
-      <c r="C135" t="s">
-        <v>304</v>
-      </c>
-      <c r="E135" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>307</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>308</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E137" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>328</v>
-      </c>
-      <c r="C138" s="8" t="s">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>337</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E138" t="s">
-        <v>330</v>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C140" t="s">
+        <v>339</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" t="s">
+        <v>342</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>344</v>
+      </c>
+      <c r="C142" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" t="s">
+        <v>348</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B138:B1048576 B1:B136">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WJ\ARTD\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623160F6-7A33-4D69-829A-6F50EB6FB59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEE9ED-8A88-4A42-A5DD-5F95F1741F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3660" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="375">
   <si>
     <t>##var</t>
   </si>
@@ -725,10 +725,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PROFILE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>个人简介</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -933,313 +929,410 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Rank/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text01</t>
+  </si>
+  <si>
+    <t>You need</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text02</t>
+  </si>
+  <si>
+    <t>to play.</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/IndividualRank/Ranked</t>
+  </si>
+  <si>
+    <t>Ranked</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/AllPlayersRank/title</t>
+  </si>
+  <si>
+    <t>Most Waves Survived in Infinite Mode</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/Leaderboard/ELabel_EmptyLeaderbord</t>
+  </si>
+  <si>
+    <t>Leaderboard's looking lonely.</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>你需要</t>
+  </si>
+  <si>
+    <t>进行游戏。</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>在无尽模式中存活最多波次</t>
+  </si>
+  <si>
+    <t>还没有人上榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
+  </si>
+  <si>
+    <t>Insufficient energy</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/EG_title/E_TitleText</t>
+  </si>
+  <si>
+    <t>观看广告</t>
+  </si>
+  <si>
+    <t>能量不足</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/Hot updates/ProgressPrarent/Processing/Text</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/Hot updates/txt_updates</t>
+  </si>
+  <si>
+    <t>Checking updates...</t>
+  </si>
+  <si>
+    <t>检查更新…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downloading {0}/{1} MB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载中 {0}/{1} MB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始下一波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Cards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Cards/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARSceneSlider/E_Slider/E_title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重扫战场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_Rescan/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESCAN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/E_LoggingText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录中…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging in…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel  /E_function/E_Function/E_BattleDeck/Text (TMP)</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch ads</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recharge Energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_ScanCode/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_MasterScanMesh/Text (TMP)</t>
+  </si>
+  <si>
+    <t>扫描地形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan Mesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_PVP/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_ScanCode/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join a room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_CancelButton/ELabel_Cancel</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_TowerBuy/EImage_TowerBuyShow/EImage_Purchased/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_ConfirmButton/ELabel_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgArcadeCoin/EGBackGround/Root/EButton_OK/text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Music/text</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Audio/text</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Damage/text</t>
+  </si>
+  <si>
+    <t>伤害数字</t>
+  </si>
+  <si>
+    <t>DamageShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDeck/E_Bag/E_BattleDeck/title</t>
+  </si>
+  <si>
+    <t>Battle Deck</t>
+  </si>
+  <si>
+    <t>上阵防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Collection</t>
+  </si>
+  <si>
+    <t>DlgBattleDeck/E_Bag/E_CardCollection/title</t>
+  </si>
+  <si>
+    <t>备选防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Challenge Mode</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>开始游玩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start New Games</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>DlgGameModeAR/E_HomePage/E_Function/E_tutorial/Text (TMP)</t>
-  </si>
-  <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Rank/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text01</t>
-  </si>
-  <si>
-    <t>You need</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text02</t>
-  </si>
-  <si>
-    <t>to play.</t>
-  </si>
-  <si>
-    <t>DlgRankEndlessChallenge/EGRoot/IndividualRank/Ranked</t>
-  </si>
-  <si>
-    <t>Ranked</t>
-  </si>
-  <si>
-    <t>DlgRankEndlessChallenge/EGRoot/AllPlayersRank/title</t>
-  </si>
-  <si>
-    <t>Most Waves Survived in Infinite Mode</t>
-  </si>
-  <si>
-    <t>DlgRankEndlessChallenge/EGRoot/Leaderboard/ELabel_EmptyLeaderbord</t>
-  </si>
-  <si>
-    <t>Leaderboard's looking lonely.</t>
-  </si>
-  <si>
-    <t>教程</t>
-  </si>
-  <si>
-    <t>你需要</t>
-  </si>
-  <si>
-    <t>进行游戏。</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>在无尽模式中存活最多波次</t>
-  </si>
-  <si>
-    <t>还没有人上榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
-  </si>
-  <si>
-    <t>Insufficient energy</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrengthTip/EGBackGround/tips/EG_title/E_TitleText</t>
-  </si>
-  <si>
-    <t>观看广告</t>
-  </si>
-  <si>
-    <t>能量不足</t>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/Hot updates/ProgressPrarent/Processing/Text</t>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/Hot updates/txt_updates</t>
-  </si>
-  <si>
-    <t>Checking updates...</t>
-  </si>
-  <si>
-    <t>检查更新…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Downloading {0}/{1} MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载中 {0}/{1} MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始下一波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Wave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Cards</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Cards/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Towers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgARSceneSlider/E_Slider/E_title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重扫战场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_Rescan/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESCAN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/E_LoggingText</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录中…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logging in…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel  /E_function/E_Function/E_BattleDeck/Text (TMP)</t>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watch ads</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recharge Energy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_ScanCode/title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入房间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_MasterScanMesh/Text (TMP)</t>
-  </si>
-  <si>
-    <t>扫描地形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scan Mesh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_PVP/title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对战模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_ScanCode/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join a room</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_CancelButton/ELabel_Cancel</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_TowerBuy/EImage_TowerBuyShow/EImage_Purchased/Text (TMP)</t>
-  </si>
-  <si>
-    <t>Purchased</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_ConfirmButton/ELabel_Confirm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgArcadeCoin/EGBackGround/Root/EButton_OK/text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Setting/Text (TMP)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设置</t>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Music/text</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Audio/text</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>Audio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Damage/text</t>
-  </si>
-  <si>
-    <t>伤害数字</t>
-  </si>
-  <si>
-    <t>DamageShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_PrivacyPolicy/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Community/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivacyPolicy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私政策</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_QuitBattle/ELabel_QuitBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_ReScan/ELabel_ReScan</t>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新开始</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1682,21 +1775,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD143"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" customWidth="1"/>
-    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="3" max="4" width="32.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1823,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1764,7 +1857,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +1887,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1838,7 +1931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1849,7 +1942,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1860,7 +1953,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1871,7 +1964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>151</v>
       </c>
@@ -1893,7 +1986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1904,7 +1997,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +2008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1926,7 +2019,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1937,18 +2030,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +2052,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +2063,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -1981,7 +2074,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -1992,18 +2085,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2118,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -2036,7 +2129,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -2058,7 +2151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -2069,9 +2162,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -2080,7 +2173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -2102,7 +2195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -2124,7 +2217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -2146,7 +2239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2157,7 +2250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -2168,7 +2261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2272,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -2190,7 +2283,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>75</v>
       </c>
@@ -2201,7 +2294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>76</v>
       </c>
@@ -2212,7 +2305,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>77</v>
       </c>
@@ -2223,7 +2316,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>78</v>
       </c>
@@ -2234,7 +2327,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>79</v>
       </c>
@@ -2245,7 +2338,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -2256,7 +2349,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>82</v>
       </c>
@@ -2267,7 +2360,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>83</v>
       </c>
@@ -2278,7 +2371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -2289,7 +2382,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>87</v>
       </c>
@@ -2300,7 +2393,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>88</v>
       </c>
@@ -2311,7 +2404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>89</v>
       </c>
@@ -2322,7 +2415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -2333,7 +2426,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>91</v>
       </c>
@@ -2344,7 +2437,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -2355,7 +2448,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>93</v>
       </c>
@@ -2366,7 +2459,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>94</v>
       </c>
@@ -2377,7 +2470,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -2388,7 +2481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>96</v>
       </c>
@@ -2399,7 +2492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>97</v>
       </c>
@@ -2410,7 +2503,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>98</v>
       </c>
@@ -2421,7 +2514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>99</v>
       </c>
@@ -2432,7 +2525,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -2443,7 +2536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>101</v>
       </c>
@@ -2454,7 +2547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>135</v>
       </c>
@@ -2465,7 +2558,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>137</v>
       </c>
@@ -2476,7 +2569,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>138</v>
       </c>
@@ -2487,7 +2580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>139</v>
       </c>
@@ -2498,7 +2591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>141</v>
       </c>
@@ -2509,18 +2602,18 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>144</v>
       </c>
@@ -2531,7 +2624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
         <v>146</v>
       </c>
@@ -2542,7 +2635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>147</v>
       </c>
@@ -2553,7 +2646,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>149</v>
       </c>
@@ -2564,7 +2657,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>150</v>
       </c>
@@ -2575,7 +2668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>158</v>
       </c>
@@ -2586,7 +2679,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>161</v>
       </c>
@@ -2594,21 +2687,21 @@
         <v>162</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>163</v>
       </c>
@@ -2619,7 +2712,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>164</v>
       </c>
@@ -2630,7 +2723,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>166</v>
       </c>
@@ -2641,7 +2734,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>167</v>
       </c>
@@ -2649,10 +2742,10 @@
         <v>188</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>168</v>
       </c>
@@ -2663,7 +2756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>176</v>
       </c>
@@ -2674,7 +2767,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>177</v>
       </c>
@@ -2685,7 +2778,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>178</v>
       </c>
@@ -2696,7 +2789,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>179</v>
       </c>
@@ -2707,7 +2800,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -2718,18 +2811,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>181</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>182</v>
       </c>
@@ -2737,25 +2830,25 @@
         <v>187</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>189</v>
       </c>
@@ -2766,7 +2859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>191</v>
       </c>
@@ -2777,7 +2870,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>193</v>
       </c>
@@ -2788,534 +2881,633 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="C96" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E96" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>203</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>209</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" t="s">
-        <v>210</v>
-      </c>
-      <c r="E99" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" t="s">
-        <v>211</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C103" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>224</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="C104" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>225</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C105" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E105" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>226</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C106" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E106" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>227</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E107" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>228</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>229</v>
-      </c>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="C109" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" t="s">
         <v>238</v>
       </c>
-      <c r="C109" s="8" t="s">
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>240</v>
       </c>
-      <c r="E109" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>241</v>
-      </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
         <v>243</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>244</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="C113" t="s">
+        <v>245</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>246</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="C114" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" t="s">
+        <v>274</v>
+      </c>
+      <c r="E118" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>247</v>
-      </c>
-      <c r="C114" t="s">
-        <v>255</v>
-      </c>
-      <c r="E114" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>249</v>
-      </c>
-      <c r="C115" t="s">
-        <v>256</v>
-      </c>
-      <c r="E115" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E116" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" t="s">
-        <v>257</v>
-      </c>
-      <c r="E117" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>263</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" t="s">
         <v>276</v>
       </c>
-      <c r="E118" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>300</v>
-      </c>
-      <c r="C120" s="8" t="s">
+      <c r="E123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" t="s">
+        <v>277</v>
+      </c>
+      <c r="E124" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" t="s">
+        <v>285</v>
+      </c>
+      <c r="E127" t="s">
         <v>314</v>
       </c>
-      <c r="E120" s="8" t="s">
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>313</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" t="s">
-        <v>277</v>
-      </c>
-      <c r="E122" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" t="s">
-        <v>279</v>
-      </c>
-      <c r="E124" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" t="s">
-        <v>280</v>
-      </c>
-      <c r="E125" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>274</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E126" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" t="s">
         <v>283</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>287</v>
       </c>
-      <c r="E127" t="s">
+      <c r="C130" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>288</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>308</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E132" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>284</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="C133" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>286</v>
-      </c>
-      <c r="C129" t="s">
-        <v>288</v>
-      </c>
-      <c r="E129" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>289</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>290</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E131" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>310</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E132" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="E133" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>318</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E134" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>323</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>320</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>325</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="8" t="s">
+      <c r="C137" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>331</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>335</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>333</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="C140" t="s">
         <v>337</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>339</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="C141" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="E141" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>342</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="C142" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="E142" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>345</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="C143" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="E143" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C143" t="s">
-        <v>348</v>
-      </c>
-      <c r="E143" s="8" t="s">
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
         <v>349</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E144" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>353</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E145" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>355</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>357</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E147" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>372</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WJ\ARTD\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WJ\ARTDSeason\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEE9ED-8A88-4A42-A5DD-5F95F1741F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8DDC7A-C96C-4CE6-B55C-F34E46960347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-3660" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="408">
   <si>
     <t>##var</t>
   </si>
@@ -444,14 +444,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>All Set!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survived {0} Waves</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fail</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -517,9 +509,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Switch Camp</t>
-  </si>
-  <si>
     <t>Select Level</t>
   </si>
   <si>
@@ -560,9 +549,6 @@
     <t>DlgBattleTower/E_Battle/E_TowerBuyShow/Text (TMP)</t>
   </si>
   <si>
-    <t>get towers</t>
-  </si>
-  <si>
     <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText_1</t>
   </si>
   <si>
@@ -570,10 +556,6 @@
   </si>
   <si>
     <t>Canvas (Environment)/Item_RoomMember/EG_None</t>
-  </si>
-  <si>
-    <t>INVITE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>邀请</t>
@@ -620,10 +602,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; waves.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Canvas (Environment)/Effect_GameBegin/EButton_GameBegin/final (1)</t>
   </si>
   <si>
@@ -782,10 +760,6 @@
     <t>Skip the tutorial</t>
   </si>
   <si>
-    <t>surviveed&lt;size=40&gt;{0}&lt;/size&gt;waves</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>成功存活&lt;size=40&gt;{0}&lt;/size&gt; 波</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -832,9 +806,6 @@
     <t xml:space="preserve">They lurk in unseen dimensions, wreaking havoc on our homeland. </t>
   </si>
   <si>
-    <t xml:space="preserve">Fortunately, our top scientists have come up with "Space-Time Defense Towers" that put an end to their shenanigans. </t>
-  </si>
-  <si>
     <t>Commander, annihilate the invaders and protect the world!</t>
   </si>
   <si>
@@ -853,9 +824,6 @@
     <t>Effect_GameEnd/EButton_ChallengeMode_victory/title</t>
   </si>
   <si>
-    <t>ChallengeMode</t>
-  </si>
-  <si>
     <t>挑战模式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -921,14 +889,6 @@
     <t>确认</t>
   </si>
   <si>
-    <t>AR Create Room</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR Join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorial</t>
   </si>
   <si>
@@ -944,9 +904,6 @@
     <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text02</t>
   </si>
   <si>
-    <t>to play.</t>
-  </si>
-  <si>
     <t>DlgRankEndlessChallenge/EGRoot/IndividualRank/Ranked</t>
   </si>
   <si>
@@ -956,15 +913,9 @@
     <t>DlgRankEndlessChallenge/EGRoot/AllPlayersRank/title</t>
   </si>
   <si>
-    <t>Most Waves Survived in Infinite Mode</t>
-  </si>
-  <si>
     <t>DlgRankEndlessChallenge/EGRoot/Leaderboard/ELabel_EmptyLeaderbord</t>
   </si>
   <si>
-    <t>Leaderboard's looking lonely.</t>
-  </si>
-  <si>
     <t>教程</t>
   </si>
   <si>
@@ -1035,26 +986,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Get Cards</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgGameModeAR/E_HomePage/E_Function/E_Cards/Text (TMP)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Towers</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1083,10 +1022,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RESCAN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/E_LoggingText</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1106,10 +1041,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Bag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Watch ads</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1133,10 +1064,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Scan Mesh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_PVP/title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1232,10 +1159,6 @@
     <t>伤害数字</t>
   </si>
   <si>
-    <t>DamageShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Profile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1273,10 +1196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Start New Games</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgGameModeAR/E_HomePage/E_Function/E_tutorial/Text (TMP)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1305,10 +1224,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PrivacyPolicy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>隐私政策</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1321,10 +1236,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Quit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_ReScan/ELabel_ReScan</t>
   </si>
   <si>
@@ -1333,6 +1244,215 @@
   </si>
   <si>
     <t>重新开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtMonsters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtMonsterDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtCardDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtCards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtFrame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/RigthTopTabGroup/EBtnTabLeaderboard/ETxtLeaderBoard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/RigthTopTabGroup/EBtnTabPowerups/ETxtPowerups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Rank/TopInfo/ELabel_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/TopInfo/ELabel_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/BottomInfo/EBtnUpdate/ETxtUpgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/TopInfo/EBtnReset/ETxtReset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Monsters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本赛季将会遇上的新怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get them through season challenges</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成赛季挑战获得新防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式存活的最大波数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power-ups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将会在本赛季的所有战斗中获得强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Set!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Towers</t>
+  </si>
+  <si>
+    <t>Survived for {0} Waves</t>
+  </si>
+  <si>
+    <t>Challenge Over</t>
+  </si>
+  <si>
+    <t>Switch Faction</t>
+  </si>
+  <si>
+    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; Waves</t>
+  </si>
+  <si>
+    <t>Survived&lt;size=40&gt;{0}&lt;/size&gt; Waves</t>
+  </si>
+  <si>
+    <t>Fortunately, our top scientists have come up with "Space-Time Defense Towers" that stop their attacks .</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create AR Room</t>
+  </si>
+  <si>
+    <t>Join AR Room</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>to continue playing.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highest Wave Survived in Infinite Mode</t>
+  </si>
+  <si>
+    <t>No one is on the leaderboard yet</t>
+  </si>
+  <si>
+    <t>Scan Terrain</t>
+  </si>
+  <si>
+    <t>Damage Display</t>
+  </si>
+  <si>
+    <t>Start New Game</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Quit Battle</t>
+  </si>
+  <si>
+    <t>Encounter them in new battles this season</t>
+  </si>
+  <si>
+    <t>Special Rewards</t>
+  </si>
+  <si>
+    <t>These power-ups will apply to all battles this season.</t>
+  </si>
+  <si>
+    <t>Redo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtFrameDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climb the leaderboard to earn one!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1775,21 +1895,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:XFD164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1943,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1977,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +2007,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +2018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +2029,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1920,7 +2040,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +2051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +2062,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +2073,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1964,7 +2084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1975,9 +2095,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1986,7 +2106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -2008,7 +2128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2019,7 +2139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -2030,18 +2150,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -2052,7 +2172,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2183,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -2085,18 +2205,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -2107,7 +2227,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -2129,7 +2249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -2140,7 +2260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -2151,7 +2271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -2162,9 +2282,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -2173,7 +2293,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>54</v>
       </c>
@@ -2184,7 +2304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -2195,7 +2315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -2217,7 +2337,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>61</v>
       </c>
@@ -2228,7 +2348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2250,7 +2370,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -2258,10 +2378,10 @@
         <v>66</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>71</v>
       </c>
@@ -2269,10 +2389,10 @@
         <v>72</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -2280,10 +2400,10 @@
         <v>42</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>75</v>
       </c>
@@ -2294,7 +2414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>76</v>
       </c>
@@ -2305,7 +2425,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>77</v>
       </c>
@@ -2313,10 +2433,10 @@
         <v>44</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>78</v>
       </c>
@@ -2324,10 +2444,10 @@
         <v>44</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>79</v>
       </c>
@@ -2335,10 +2455,10 @@
         <v>42</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -2349,7 +2469,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>82</v>
       </c>
@@ -2360,7 +2480,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>83</v>
       </c>
@@ -2368,10 +2488,10 @@
         <v>84</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -2382,7 +2502,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>87</v>
       </c>
@@ -2393,7 +2513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>88</v>
       </c>
@@ -2404,7 +2524,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>89</v>
       </c>
@@ -2412,10 +2532,10 @@
         <v>84</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -2426,7 +2546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>91</v>
       </c>
@@ -2437,7 +2557,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -2448,7 +2568,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>93</v>
       </c>
@@ -2456,10 +2576,10 @@
         <v>84</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>94</v>
       </c>
@@ -2470,7 +2590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>95</v>
       </c>
@@ -2481,7 +2601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>96</v>
       </c>
@@ -2492,7 +2612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>97</v>
       </c>
@@ -2503,7 +2623,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>98</v>
       </c>
@@ -2511,10 +2631,10 @@
         <v>84</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>99</v>
       </c>
@@ -2525,7 +2645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -2536,7 +2656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>101</v>
       </c>
@@ -2547,20 +2667,20 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>135</v>
-      </c>
-      <c r="C64" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>137</v>
       </c>
       <c r="C65" t="s">
         <v>73</v>
@@ -2569,9 +2689,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -2580,53 +2700,53 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>139</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="E68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>141</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>142</v>
       </c>
-      <c r="E68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="C70" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
@@ -2635,130 +2755,130 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="E72" t="s">
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
+      <c r="E75" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" t="s">
         <v>159</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E76" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="C78" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>161</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="C80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C81" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>170</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>176</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
@@ -2767,20 +2887,20 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
         <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
         <v>43</v>
@@ -2789,730 +2909,864 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
         <v>44</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="E87" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="E89" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+      <c r="C95" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="E95" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+      <c r="C96" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>201</v>
-      </c>
       <c r="C97" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
         <v>202</v>
       </c>
-      <c r="C98" t="s">
-        <v>208</v>
-      </c>
       <c r="E98" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
         <v>203</v>
       </c>
-      <c r="C99" t="s">
-        <v>209</v>
-      </c>
       <c r="E99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" t="s">
-        <v>210</v>
-      </c>
       <c r="E100" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>220</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="C107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>221</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E104" s="9" t="s">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E105" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E106" s="9" t="s">
+      <c r="E109" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" t="s">
-        <v>236</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>228</v>
-      </c>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>237</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>240</v>
-      </c>
       <c r="C110" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E116" t="s">
         <v>242</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>243</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="C117" t="s">
+        <v>247</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>244</v>
-      </c>
-      <c r="C113" t="s">
-        <v>245</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="E118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>246</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="E122" t="s">
         <v>254</v>
       </c>
-      <c r="E114" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>248</v>
-      </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>255</v>
       </c>
-      <c r="E115" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>250</v>
-      </c>
-      <c r="C116" s="8" t="s">
+      <c r="C123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" t="s">
         <v>257</v>
       </c>
-      <c r="E116" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" t="s">
-        <v>256</v>
-      </c>
-      <c r="E117" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="8" t="s">
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E128" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>303</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>315</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C140" t="s">
+        <v>317</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" t="s">
+        <v>320</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>322</v>
+      </c>
+      <c r="C142" t="s">
+        <v>323</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" t="s">
+        <v>326</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>334</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>336</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C118" t="s">
-        <v>274</v>
-      </c>
-      <c r="E118" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>263</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>298</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>311</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" t="s">
-        <v>275</v>
-      </c>
-      <c r="E122" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" t="s">
-        <v>276</v>
-      </c>
-      <c r="E123" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>268</v>
-      </c>
-      <c r="C124" t="s">
-        <v>277</v>
-      </c>
-      <c r="E124" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E126" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>281</v>
-      </c>
-      <c r="C127" t="s">
-        <v>285</v>
-      </c>
-      <c r="E127" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>282</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E128" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>284</v>
-      </c>
-      <c r="C129" t="s">
-        <v>286</v>
-      </c>
-      <c r="E129" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>288</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E131" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>308</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E132" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>316</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>331</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>335</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C140" t="s">
-        <v>337</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>339</v>
-      </c>
-      <c r="C141" t="s">
-        <v>340</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>342</v>
-      </c>
-      <c r="C142" t="s">
-        <v>343</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>345</v>
-      </c>
-      <c r="C143" t="s">
-        <v>346</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>349</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E144" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>353</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E145" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>355</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E146" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>357</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E147" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>372</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E152" s="8" t="s">
+      <c r="C163" s="8" t="s">
         <v>373</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B138:B1048576 B1:B136">
+  <conditionalFormatting sqref="B1:B136 B138:B163 B165:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WJ\ARTDSeason\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8DDC7A-C96C-4CE6-B55C-F34E46960347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FADF83-EF06-4FD9-BC1E-434EA946EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="484">
   <si>
     <t>##var</t>
   </si>
@@ -676,783 +676,1090 @@
     <t>Max Level</t>
   </si>
   <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Dlg_Personal_Information/EGBackGround/Root/E_info/name/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Dlg_Personal_Information/EGBackGround/Root/EG_title/title</t>
+  </si>
+  <si>
+    <t>满级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_Guest/Text</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_SDK/Text</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/EG_Confirm/E_Save/Text</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/E_info/Avatar/title</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/E_info/name/E_InputField/Text Area/Text</t>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name​</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>姓名​</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outperformed {0}% of all players</t>
+  </si>
+  <si>
+    <t>Skip the tutorial</t>
+  </si>
+  <si>
+    <t>成功存活&lt;size=40&gt;{0}&lt;/size&gt; 波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgVideoShow/Sprite_BackGround/E_TextContext</t>
+  </si>
+  <si>
+    <t>PVP Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_PVP/locking/Text</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_join/locking/Text</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story1/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story2/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story3/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story4/TextContext</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/story5/TextContext</t>
+  </si>
+  <si>
+    <t>Evil spirits from a parallel realm have breached the boundaries of our reality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They lurk in unseen dimensions, wreaking havoc on our homeland. </t>
+  </si>
+  <si>
+    <t>Commander, annihilate the invaders and protect the world!</t>
+  </si>
+  <si>
+    <t>恶灵从另一个平行空间侵入现实世界。</t>
+  </si>
+  <si>
+    <t>它们潜伏在看不见的位面中，肆虐着我们的家园。</t>
+  </si>
+  <si>
+    <t>幸运的是，科学家们设计出了“时空防御塔”，阻止它们作乱。</t>
+  </si>
+  <si>
+    <t>指挥官，歼灭入侵者，保卫世界！</t>
+  </si>
+  <si>
+    <t>Effect_GameEnd/EButton_ChallengeMode_victory/title</t>
+  </si>
+  <si>
+    <t>挑战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/EG_OperatorMenu/OperatorRoot/Sell/EButton_Sale/text</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/EG_OperatorMenu/OperatorRoot/Sell/EButton_Confirm/text</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_ARRoomModeCreate/E_ARRoomModeCreateText</t>
+  </si>
+  <si>
+    <t>AR创建房间</t>
+  </si>
+  <si>
+    <t>DlgGameMode/EGBackGround/E_ARRoomModeJoin/E_ARRoomModeJoinText</t>
+  </si>
+  <si>
+    <t>AR加入</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/title</t>
+  </si>
+  <si>
+    <t>Infinite Mode</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/ELabel_Waves</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/ELabel_Rank</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_PVE/title</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>无尽模式</t>
+  </si>
+  <si>
+    <t>存活 {0} 波</t>
+  </si>
+  <si>
+    <t>挑战</t>
+  </si>
+  <si>
+    <t>世界排名 #{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Rank/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text01</t>
+  </si>
+  <si>
+    <t>You need</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text02</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/IndividualRank/Ranked</t>
+  </si>
+  <si>
+    <t>Ranked</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/AllPlayersRank/title</t>
+  </si>
+  <si>
+    <t>DlgRankEndlessChallenge/EGRoot/Leaderboard/ELabel_EmptyLeaderbord</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>你需要</t>
+  </si>
+  <si>
+    <t>进行游戏。</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>在无尽模式中存活最多波次</t>
+  </si>
+  <si>
+    <t>还没有人上榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
+  </si>
+  <si>
+    <t>Insufficient energy</t>
+  </si>
+  <si>
+    <t>DlgPhysicalStrengthTip/EGBackGround/tips/EG_title/E_TitleText</t>
+  </si>
+  <si>
+    <t>观看广告</t>
+  </si>
+  <si>
+    <t>能量不足</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/Hot updates/ProgressPrarent/Processing/Text</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/Hot updates/txt_updates</t>
+  </si>
+  <si>
+    <t>Checking updates...</t>
+  </si>
+  <si>
+    <t>检查更新…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downloading {0}/{1} MB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载中 {0}/{1} MB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始下一波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Cards/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARSceneSlider/E_Slider/E_title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重扫战场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoom/EGBackGround/E_Rescan/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/E_LoggingText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录中…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging in…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel  /E_function/E_Function/E_BattleDeck/Text (TMP)</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch ads</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recharge Energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_ScanCode/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_MasterScanMesh/Text (TMP)</t>
+  </si>
+  <si>
+    <t>扫描地形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_PVP/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_ScanCode/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join a room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_CancelButton/ELabel_Cancel</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_TowerBuy/EImage_TowerBuyShow/EImage_Purchased/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_ConfirmButton/ELabel_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgArcadeCoin/EGBackGround/Root/EButton_OK/text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Music/text</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Audio/text</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Damage/text</t>
+  </si>
+  <si>
+    <t>伤害数字</t>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDeck/E_Bag/E_BattleDeck/title</t>
+  </si>
+  <si>
+    <t>Battle Deck</t>
+  </si>
+  <si>
+    <t>上阵防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Collection</t>
+  </si>
+  <si>
+    <t>DlgBattleDeck/E_Bag/E_CardCollection/title</t>
+  </si>
+  <si>
+    <t>备选防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Challenge Mode</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/Text (TMP)</t>
+  </si>
+  <si>
+    <t>开始游玩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_tutorial/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Setting/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_PrivacyPolicy/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_Function/E_Community/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私政策</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_QuitBattle/ELabel_QuitBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_ReScan/ELabel_ReScan</t>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtMonsters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtMonsterDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtCardDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtCards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtFrame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/RigthTopTabGroup/EBtnTabLeaderboard/ETxtLeaderBoard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/RigthTopTabGroup/EBtnTabPowerups/ETxtPowerups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Rank/TopInfo/ELabel_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/TopInfo/ELabel_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/BottomInfo/EBtnUpdate/ETxtUpgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/TopInfo/EBtnReset/ETxtReset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Monsters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本赛季将会遇上的新怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成赛季挑战获得新防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式存活的最大波数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power-ups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将会在本赛季的所有战斗中获得强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Set!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Towers</t>
+  </si>
+  <si>
+    <t>Survived for {0} Waves</t>
+  </si>
+  <si>
+    <t>Challenge Over</t>
+  </si>
+  <si>
+    <t>Switch Faction</t>
+  </si>
+  <si>
+    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; Waves</t>
+  </si>
+  <si>
+    <t>Survived&lt;size=40&gt;{0}&lt;/size&gt; Waves</t>
+  </si>
+  <si>
+    <t>Fortunately, our top scientists have come up with "Space-Time Defense Towers" that stop their attacks .</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create AR Room</t>
+  </si>
+  <si>
+    <t>Join AR Room</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>to continue playing.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highest Wave Survived in Infinite Mode</t>
+  </si>
+  <si>
+    <t>No one is on the leaderboard yet</t>
+  </si>
+  <si>
+    <t>Scan Terrain</t>
+  </si>
+  <si>
+    <t>Damage Display</t>
+  </si>
+  <si>
+    <t>Start New Game</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Quit Battle</t>
+  </si>
+  <si>
+    <t>Special Rewards</t>
+  </si>
+  <si>
+    <t>Redo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtFrameDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgMail/Inbox/MainContent/TopTitle/titleBK/Txt</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inbox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgMail/Inbox/MainContent/MidContent/ELabel_InboxEmpty/txt</t>
+  </si>
+  <si>
+    <t>暂无邮件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPersionalAvatar/EGBackGround/Root/E_info/Frame/ELabel_NoFrameTip</t>
+  </si>
+  <si>
+    <t>当前没有头像框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survived {0} waves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar Frames</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/E_info/AvatarFrame/title</t>
+  </si>
+  <si>
+    <t>赛季排名结算奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climb leaderboards in Infinite Mode season to earn exclusive avatar frames.</t>
+  </si>
+  <si>
+    <t>DlgPersionalAvatar/EGBackGround/Root/EImageCurrentBk/ELabelDesNOFrame</t>
+  </si>
+  <si>
+    <t>无头像框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Frame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inbox Empty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Mail_Inbox/EBtnCollect/text</t>
+  </si>
+  <si>
+    <t>领取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claim Reward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claim All Rewards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgMail/Inbox/Filter/EBtnCollectAll/CollectAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encountered in battles through out this season</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocked in new challenges of this season</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>These power-ups will apply to all battles in this season.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned by climbing the leaderboards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPage_ChallengNormal/info/EG_Reward/Txt_Reward</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewards</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPage_ChallengNormal/info/monster/Txt_Monsters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Dlg_Personal_Information/EGBackGround/Root/EG_Confirm/E_ConfirmCancel/Text</t>
-  </si>
-  <si>
-    <t>Log out</t>
-  </si>
-  <si>
-    <t>Dlg_Personal_Information/EGBackGround/Root/E_info/name/Text (TMP)</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Dlg_Personal_Information/EGBackGround/Root/EG_title/title</t>
-  </si>
-  <si>
-    <t>满级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_Guest/Text</t>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_SDK/Text</t>
-  </si>
-  <si>
-    <t>DlgPersonalInformation/EGBackGround/Root/EG_Confirm/E_Save/Text</t>
-  </si>
-  <si>
-    <t>DlgPersonalInformation/EGBackGround/Root/E_info/Avatar/title</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>DlgPersonalInformation/EGBackGround/Root/E_info/name/E_InputField/Text Area/Text</t>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name​</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>姓名​</t>
-  </si>
-  <si>
-    <t>开始游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outperformed {0}% of all players</t>
-  </si>
-  <si>
-    <t>Skip the tutorial</t>
-  </si>
-  <si>
-    <t>成功存活&lt;size=40&gt;{0}&lt;/size&gt; 波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgVideoShow/Sprite_BackGround/E_TextContext</t>
-  </si>
-  <si>
-    <t>PVP Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_PVP/locking/Text</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_join/locking/Text</t>
-  </si>
-  <si>
-    <t>Coming Soon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>即将开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBeginnersGuideStory/story1/TextContext</t>
-  </si>
-  <si>
-    <t>DlgBeginnersGuideStory/story2/TextContext</t>
-  </si>
-  <si>
-    <t>DlgBeginnersGuideStory/story3/TextContext</t>
-  </si>
-  <si>
-    <t>DlgBeginnersGuideStory/story4/TextContext</t>
-  </si>
-  <si>
-    <t>DlgBeginnersGuideStory/story5/TextContext</t>
-  </si>
-  <si>
-    <t>Evil spirits from a parallel realm have breached the boundaries of our reality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They lurk in unseen dimensions, wreaking havoc on our homeland. </t>
-  </si>
-  <si>
-    <t>Commander, annihilate the invaders and protect the world!</t>
-  </si>
-  <si>
-    <t>恶灵从另一个平行空间侵入现实世界。</t>
-  </si>
-  <si>
-    <t>它们潜伏在看不见的位面中，肆虐着我们的家园。</t>
-  </si>
-  <si>
-    <t>幸运的是，科学家们设计出了“时空防御塔”，阻止它们作乱。</t>
-  </si>
-  <si>
-    <t>指挥官，歼灭入侵者，保卫世界！</t>
-  </si>
-  <si>
-    <t>Effect_GameEnd/EButton_ChallengeMode_victory/title</t>
-  </si>
-  <si>
-    <t>挑战模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleTowerHUD/EG_OperatorMenu/OperatorRoot/Sell/EButton_Sale/text</t>
-  </si>
-  <si>
-    <t>DlgBattleTowerHUD/EG_OperatorMenu/OperatorRoot/Sell/EButton_Confirm/text</t>
-  </si>
-  <si>
-    <t>DlgGameMode/EGBackGround/E_ARRoomModeCreate/E_ARRoomModeCreateText</t>
-  </si>
-  <si>
-    <t>AR创建房间</t>
-  </si>
-  <si>
-    <t>DlgGameMode/EGBackGround/E_ARRoomModeJoin/E_ARRoomModeJoinText</t>
-  </si>
-  <si>
-    <t>AR加入</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/title</t>
-  </si>
-  <si>
-    <t>Infinite Mode</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/ELabel_Waves</t>
-  </si>
-  <si>
-    <t>Survived {0} waves</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_EndlessChallenge/ELabel_Rank</t>
-  </si>
-  <si>
-    <t>World #{0}</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_play/E_GameMode/E_PVE/title</t>
-  </si>
-  <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>无尽模式</t>
-  </si>
-  <si>
-    <t>存活 {0} 波</t>
-  </si>
-  <si>
-    <t>挑战</t>
-  </si>
-  <si>
-    <t>世界排名 #{0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Rank/Text (TMP)</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text01</t>
-  </si>
-  <si>
-    <t>You need</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrengthTip/EGBackGround/tips/E_info/Text02</t>
-  </si>
-  <si>
-    <t>DlgRankEndlessChallenge/EGRoot/IndividualRank/Ranked</t>
-  </si>
-  <si>
-    <t>Ranked</t>
-  </si>
-  <si>
-    <t>DlgRankEndlessChallenge/EGRoot/AllPlayersRank/title</t>
-  </si>
-  <si>
-    <t>DlgRankEndlessChallenge/EGRoot/Leaderboard/ELabel_EmptyLeaderbord</t>
-  </si>
-  <si>
-    <t>教程</t>
-  </si>
-  <si>
-    <t>你需要</t>
-  </si>
-  <si>
-    <t>进行游戏。</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>在无尽模式中存活最多波次</t>
-  </si>
-  <si>
-    <t>还没有人上榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EButton_WatchAD/E_CancelText</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrength/EGBackGround/PhysicalStrength/EG_title2/E_TitleText2</t>
-  </si>
-  <si>
-    <t>Insufficient energy</t>
-  </si>
-  <si>
-    <t>DlgPhysicalStrengthTip/EGBackGround/tips/EG_title/E_TitleText</t>
-  </si>
-  <si>
-    <t>观看广告</t>
-  </si>
-  <si>
-    <t>能量不足</t>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/Hot updates/ProgressPrarent/Processing/Text</t>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/Hot updates/txt_updates</t>
-  </si>
-  <si>
-    <t>Checking updates...</t>
-  </si>
-  <si>
-    <t>检查更新…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Downloading {0}/{1} MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载中 {0}/{1} MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始下一波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Wave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Cards/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Towers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgARSceneSlider/E_Slider/E_title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重扫战场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgARRoom/EGBackGround/E_Rescan/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/E_LoggingText</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录中…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logging in…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel  /E_function/E_Function/E_BattleDeck/Text (TMP)</t>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watch ads</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recharge Energy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_ScanCode/title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入房间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeArcade/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_MasterScanMesh/Text (TMP)</t>
-  </si>
-  <si>
-    <t>扫描地形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/E_PVP/title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对战模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/E_ScanCode/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join a room</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_CancelButton/ELabel_Cancel</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_TowerBuy/EImage_TowerBuyShow/EImage_Purchased/Text (TMP)</t>
-  </si>
-  <si>
-    <t>Purchased</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleDragItem/EGRoot/E_ConfirmRoot/E_ConfirmButton/ELabel_Confirm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgArcadeCoin/EGBackGround/Root/EButton_OK/text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Music/text</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Audio/text</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>Audio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/E_Toggle_Damage/text</t>
-  </si>
-  <si>
-    <t>伤害数字</t>
-  </si>
-  <si>
-    <t>Profile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleDeck/E_Bag/E_BattleDeck/title</t>
-  </si>
-  <si>
-    <t>Battle Deck</t>
-  </si>
-  <si>
-    <t>上阵防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card Collection</t>
-  </si>
-  <si>
-    <t>DlgBattleDeck/E_Bag/E_CardCollection/title</t>
-  </si>
-  <si>
-    <t>备选防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/title/Text (TMP)</t>
-  </si>
-  <si>
-    <t>Challenge Mode</t>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_play/E_GameMode/title/Text (TMP)</t>
-  </si>
-  <si>
-    <t>开始游玩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_tutorial/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Setting/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_PrivacyPolicy/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgGameModeAR/E_HomePage/E_Function/E_Community/Text (TMP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Community</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐私政策</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_QuitBattle/ELabel_QuitBattle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出战斗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_ReScan/ELabel_ReScan</t>
-  </si>
-  <si>
-    <t>Restart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtMonsters</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtMonsterDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtCardDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtCards</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtFrame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/RigthTopTabGroup/EBtnTabLeaderboard/ETxtLeaderBoard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/RigthTopTabGroup/EBtnTabPowerups/ETxtPowerups</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/EPage_Rank/TopInfo/ELabel_Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/TopInfo/ELabel_Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/BottomInfo/EBtnUpdate/ETxtUpgrade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/TopInfo/EBtnReset/ETxtReset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛季</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Season</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Monsters</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本赛季将会遇上的新怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get them through season challenges</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成赛季挑战获得新防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Towers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaderboard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限模式存活的最大波数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power-ups</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛季强化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将会在本赛季的所有战斗中获得强化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Set!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Towers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy Towers</t>
-  </si>
-  <si>
-    <t>Survived for {0} Waves</t>
-  </si>
-  <si>
-    <t>Challenge Over</t>
-  </si>
-  <si>
-    <t>Switch Faction</t>
-  </si>
-  <si>
-    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; Waves</t>
-  </si>
-  <si>
-    <t>Survived&lt;size=40&gt;{0}&lt;/size&gt; Waves</t>
-  </si>
-  <si>
-    <t>Fortunately, our top scientists have come up with "Space-Time Defense Towers" that stop their attacks .</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create AR Room</t>
-  </si>
-  <si>
-    <t>Join AR Room</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>to continue playing.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Highest Wave Survived in Infinite Mode</t>
-  </si>
-  <si>
-    <t>No one is on the leaderboard yet</t>
-  </si>
-  <si>
-    <t>Scan Terrain</t>
-  </si>
-  <si>
-    <t>Damage Display</t>
-  </si>
-  <si>
-    <t>Start New Game</t>
-  </si>
-  <si>
-    <t>Privacy Policy</t>
-  </si>
-  <si>
-    <t>Quit Battle</t>
-  </si>
-  <si>
-    <t>Encounter them in new battles this season</t>
-  </si>
-  <si>
-    <t>Special Rewards</t>
-  </si>
-  <si>
-    <t>These power-ups will apply to all battles this season.</t>
-  </si>
-  <si>
-    <t>Redo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Settings</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DlgRankPowerupSeason/EGRoot/LeftSeasonInfoPanel/ETxtFrameDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climb the leaderboard to earn one!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_OperatorMenu/OperatorRoot/E_Yes/text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/OperatorRoot/E_InputFieldComplain/Text Area/Placeholder</t>
+  </si>
+  <si>
+    <t>描述问题……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe the issue...​</t>
+  </si>
+  <si>
+    <t>DlgChallengeMode_Info/EGRoot/Level/title/Title</t>
+  </si>
+  <si>
+    <t>Level {0}</t>
+  </si>
+  <si>
+    <t>关卡 {0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_OperatorMenu/OperatorRoot/E_Complain/text</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>可以更好</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_Complain/Root/OperatorRoot/E_InputFieldComplain/Text Area/Placeholder</t>
+  </si>
+  <si>
+    <t>Thank you for your advice!</t>
+  </si>
+  <si>
+    <t>感谢您的反馈！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgQuestionnaire/EG_Report/Root/OperatorRoot/E_CloseComplain/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Not now</t>
+  </si>
+  <si>
+    <t>DlgQuestionnaire/EG_Report/Root/OperatorRoot/E_Start/text</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>DlgQuestionnaire/EG_Report/Root/Gifts/Txt</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>DlgQuestionnaire/EG_Report/Root/info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill out our user survey and get a thank-you gift. 
+Your feedback makes a difference! </t>
+  </si>
+  <si>
+    <t>DlgQuestionnaire/EG_Report/Root/title</t>
+  </si>
+  <si>
+    <t>Join our user survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DlgMail/Inbox/MainContent/TopTitle/titleBK/Txt </t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>DlgMail/Inbox/Filter/EBtnCollectAll_None/CollectAll</t>
+  </si>
+  <si>
+    <t>Collect All</t>
+  </si>
+  <si>
+    <r>
+      <t>Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> #{0}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgTutorials/Tutorials/E_Tutorials/titleBK/Txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Other/E_Discord/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Other/E_ButtonTutorials/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/titleBK/TabRegularRoot/EBtnRegular/ERegularTxt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/titleBK/TabRegularRoot/EBtnRegular/ETxtinfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Levels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/titleBK/TabRegularRoot/EBtnRegular_Unselected/ERegularTxtUnselected</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/titleBK/TabSeasonRoot/EBtnSeason_Unselected/ETxtUnselected</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/EPage_ChallengSeason/info/E_Select/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/EPage_ChallengSeason/info/E_Unlocked/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/EPage_ChallengNormal/info/E_Select/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/EPage_ChallengNormal/info/E_Unlocked/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/BottomInfo/EBtnUpdate_null/ETxtUpgradeNull</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/BottomInfo/EBtnUpdate_max/TxtUpgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTower/E_PutHomeAndMonsterPoint/EButton_ResetHome/ELabel_Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/titleBK/TabSeasonRoot/EBtnSeason/ETxt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1582,7 +1889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1597,6 +1904,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1895,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD164"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2155,10 +2469,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2207,13 +2521,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -2284,7 +2598,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -2378,7 +2692,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -2389,7 +2703,7 @@
         <v>72</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -2433,7 +2747,7 @@
         <v>44</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -2444,7 +2758,7 @@
         <v>44</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -2727,10 +3041,10 @@
         <v>141</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
@@ -2785,7 +3099,7 @@
         <v>132</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
@@ -2807,15 +3121,15 @@
         <v>159</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>123</v>
@@ -2829,7 +3143,7 @@
         <v>165</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
@@ -2840,7 +3154,7 @@
         <v>168</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
@@ -2851,7 +3165,7 @@
         <v>169</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -2862,7 +3176,7 @@
         <v>182</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -2936,10 +3250,10 @@
         <v>175</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -2950,18 +3264,18 @@
         <v>181</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -2973,62 +3287,62 @@
         <v>183</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E92" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="B93" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" t="s">
         <v>185</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" t="s">
         <v>187</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E94" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>117</v>
@@ -3036,737 +3350,1136 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" t="s">
-        <v>203</v>
-      </c>
-      <c r="E99" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
+      <c r="B100" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>201</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="E101" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>217</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>387</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" t="s">
-        <v>228</v>
+        <v>216</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>335</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" t="s">
-        <v>249</v>
-      </c>
-      <c r="E110" t="s">
-        <v>109</v>
+        <v>226</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>232</v>
-      </c>
-      <c r="C111" t="s">
-        <v>250</v>
-      </c>
-      <c r="E111" t="s">
-        <v>113</v>
+        <v>440</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C112" t="s">
-        <v>234</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>388</v>
+        <v>244</v>
+      </c>
+      <c r="E112" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>389</v>
+        <v>245</v>
+      </c>
+      <c r="E113" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
-      </c>
-      <c r="E114" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>246</v>
-      </c>
-      <c r="E115" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="C116" t="s">
+        <v>240</v>
       </c>
       <c r="E116" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C117" t="s">
-        <v>247</v>
-      </c>
-      <c r="E117" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C118" t="s">
-        <v>260</v>
-      </c>
-      <c r="E118" t="s">
-        <v>251</v>
+      <c r="E118" s="8" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>252</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>365</v>
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>242</v>
+      </c>
+      <c r="E119" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>282</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>390</v>
+      <c r="B120" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>283</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>253</v>
-      </c>
-      <c r="C122" t="s">
-        <v>261</v>
-      </c>
-      <c r="E122" t="s">
-        <v>254</v>
+        <v>277</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>255</v>
-      </c>
-      <c r="C123" t="s">
-        <v>262</v>
+        <v>288</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" t="s">
         <v>256</v>
       </c>
-      <c r="C124" t="s">
-        <v>263</v>
-      </c>
       <c r="E124" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>259</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>394</v>
+        <v>251</v>
+      </c>
+      <c r="C126" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C127" t="s">
-        <v>271</v>
-      </c>
-      <c r="E127" t="s">
-        <v>295</v>
+        <v>259</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E128" t="s">
-        <v>296</v>
+        <v>260</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E129" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>277</v>
+        <v>261</v>
+      </c>
+      <c r="E130" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>274</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
+      </c>
+      <c r="C131" t="s">
+        <v>267</v>
       </c>
       <c r="E131" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E132" t="s">
-        <v>292</v>
+        <v>273</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>304</v>
+        <v>271</v>
+      </c>
+      <c r="E133" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>395</v>
+        <v>286</v>
+      </c>
+      <c r="E134" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>298</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="C137" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E136" s="8" t="s">
+      <c r="E139" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>311</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>315</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" t="s">
-        <v>317</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>319</v>
-      </c>
-      <c r="C141" t="s">
-        <v>320</v>
+        <v>310</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>322</v>
+      <c r="B142" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C142" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C143" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>328</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E144" t="s">
-        <v>329</v>
+        <v>316</v>
+      </c>
+      <c r="C144" t="s">
+        <v>317</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>332</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E145" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="C145" t="s">
+        <v>320</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="E146" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>397</v>
+        <v>327</v>
+      </c>
+      <c r="E147" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="8" t="s">
-        <v>339</v>
+      <c r="B148" t="s">
+        <v>328</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>318</v>
+        <v>227</v>
+      </c>
+      <c r="E148" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="8" t="s">
-        <v>342</v>
+      <c r="B149" t="s">
+        <v>330</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>348</v>
+      <c r="B152" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="8" t="s">
-        <v>353</v>
+      <c r="B154" t="s">
+        <v>342</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="E164" s="8"/>
+      <c r="B164" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>405</v>
+        <v>354</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>407</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>398</v>
+      </c>
+      <c r="C168" t="s">
+        <v>399</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>401</v>
+      </c>
+      <c r="C169" t="s">
+        <v>402</v>
+      </c>
+      <c r="E169" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>413</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>427</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>437</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E179" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>443</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E181" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>446</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E182" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>449</v>
+      </c>
+      <c r="C184" t="s">
+        <v>450</v>
+      </c>
+      <c r="E184" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>451</v>
+      </c>
+      <c r="C185" t="s">
+        <v>452</v>
+      </c>
+      <c r="E185" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>453</v>
+      </c>
+      <c r="C186" t="s">
+        <v>454</v>
+      </c>
+      <c r="E186" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>455</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>457</v>
+      </c>
+      <c r="C188" t="s">
+        <v>458</v>
+      </c>
+      <c r="E188" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>459</v>
+      </c>
+      <c r="C190" t="s">
+        <v>460</v>
+      </c>
+      <c r="E190" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>461</v>
+      </c>
+      <c r="C191" t="s">
+        <v>462</v>
+      </c>
+      <c r="E191" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>464</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>466</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>467</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B136 B138:B163 B165:B1048576">
+  <conditionalFormatting sqref="B140:B165 B167:B1048576 B1:B138">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FADF83-EF06-4FD9-BC1E-434EA946EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B08A85-8A91-4E5B-9666-BAEBF6F63A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="649">
   <si>
     <t>##var</t>
   </si>
@@ -556,10 +556,6 @@
   </si>
   <si>
     <t>Canvas (Environment)/Item_RoomMember/EG_None</t>
-  </si>
-  <si>
-    <t>邀请</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Vacant</t>
@@ -741,10 +737,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>登录账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Outperformed {0}% of all players</t>
   </si>
   <si>
@@ -1213,10 +1205,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>退出战斗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_ReScan/ELabel_ReScan</t>
   </si>
   <si>
@@ -1336,10 +1324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Invite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Get Towers</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1399,9 +1383,6 @@
   </si>
   <si>
     <t>Privacy Policy</t>
-  </si>
-  <si>
-    <t>Quit Battle</t>
   </si>
   <si>
     <t>Special Rewards</t>
@@ -1645,10 +1626,6 @@
     <t>DlgQuestionnaire/EG_Report/Root/info</t>
   </si>
   <si>
-    <t xml:space="preserve">Fill out our user survey and get a thank-you gift. 
-Your feedback makes a difference! </t>
-  </si>
-  <si>
     <t>DlgQuestionnaire/EG_Report/Root/title</t>
   </si>
   <si>
@@ -1675,6 +1652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1762,12 +1740,611 @@
     <t>DlgChallengeMode/E_HomePage/E_play/E_GameMode/titleBK/TabSeasonRoot/EBtnSeason/ETxt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_function/E_Function/E_SettingLeft/Text (TMP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>DlgARRoomPVESeason/EGBackGround/EGRoot/E_OperationPanel/Info/E_RoomMemberStatus/ELable_RoomMemberStatus</t>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText/yousurvived</t>
+  </si>
+  <si>
+    <t>你存活了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>You survived</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Effect_EndlessChallenge/Effect_GameEnd_ChallengeEnds/EButton_GameEnd_ChallengeEnds/E_ChanllengeText/waves</t>
+  </si>
+  <si>
+    <t>波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waves</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/EG_Account/E_Account/E_Account_Title</t>
+  </si>
+  <si>
+    <t>绑定账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/EG_Account/E_GoogleLogin/Text</t>
+  </si>
+  <si>
+    <t>绑定谷歌账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect Google account</t>
+  </si>
+  <si>
+    <t>DlgPersonalInformation/EGBackGround/Root/EG_Account/E_IphoneLogin/Text</t>
+  </si>
+  <si>
+    <t>绑定苹果账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect Apple Account</t>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与问卷调查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部领取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPersionalAvatar/EGBackGround/Root/EImageCurrentBk/ELabel_Preview</t>
+  </si>
+  <si>
+    <t>预览</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgPersionalAvatar/EGBackGround/Root/EImageCurrentBk/ELabel_Current</t>
+  </si>
+  <si>
+    <t>当前</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgRankPowerupSeason/EGRoot/EPage_Powerup/BottomInfo/Txt/Nextlevel/ETxtNextLevel</t>
+  </si>
+  <si>
+    <t>下一级：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Level:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Language/E_LanguageCN/Text (TMP)</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Language/E_LanguageEN/Text (TMP)</t>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Language/E_LanguageTW/Text (TMP)</t>
+  </si>
+  <si>
+    <t>繁体中文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoomPVESeason/EGBackGround/EGRoot/E_OperationPanel/Level/Reward/Txt_Reward</t>
+  </si>
+  <si>
+    <t>Reward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgARRoomPVESeason/EGBackGround/EGRoot/E_OperationPanel/Level/monster/Txt_Monsters</t>
+  </si>
+  <si>
+    <t>DlgScanTips/E_ScanTips/title</t>
+  </si>
+  <si>
+    <t>扫描时间过长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan taking too long</t>
+  </si>
+  <si>
+    <t>DlgScanTips/E_ScanTips/Text (TMP)</t>
+  </si>
+  <si>
+    <t>耗时过长，可能出现了问题，您可以尝试重新扫描或者上报详情。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems the scanning process is taking too long. You may retry or report the issue.</t>
+  </si>
+  <si>
+    <t>DlgScanTips/E_ScanTips/E_Report/Text</t>
+  </si>
+  <si>
+    <t>上报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgScanTips/E_ScanTips/E_Retry/text</t>
+  </si>
+  <si>
+    <t>DlgTutorials/Tutorials/E_Tutorials/E_video/EButton_Pause/ELabel_Pause</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgMailSettlement/GiftsCollected/bg/Title</t>
+  </si>
+  <si>
+    <t>获得奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gifts Collected</t>
+  </si>
+  <si>
+    <t>DlgMailSettlement/GiftsCollected/bg/Tips</t>
+  </si>
+  <si>
+    <t>点击继续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap to Continue</t>
+  </si>
+  <si>
+    <t>DlgMailInfo/EG_MailReport/Root/EMainContentGifts/title</t>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gifts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLoading/Sprite_BackGround/ProgressPrarent/Processing/Text</t>
+  </si>
+  <si>
+    <t>载入中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/title</t>
+  </si>
+  <si>
+    <t>上报异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any bugs or issues?</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/info</t>
+  </si>
+  <si>
+    <t>您遇上了什么问题？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>What issue did you meets?</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/E_ToggleGroup/E_Toggle_1/info</t>
+  </si>
+  <si>
+    <t>黑屏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black screen</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/E_ToggleGroup/E_Toggle_2/info</t>
+  </si>
+  <si>
+    <t>没有扫描结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No scan results</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/E_ToggleGroup/E_Toggle_3/info</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/OperatorRoot/info (1)</t>
+  </si>
+  <si>
+    <t>请描述更多细节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please provide more details</t>
+  </si>
+  <si>
+    <t>DlgGameReport/EG_Report/Root/OperatorRoot/E_CloseComplain/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_Complain/Root/title</t>
+  </si>
+  <si>
+    <t>帮助我们做得更好！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can we do better?</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_Complain/Root/info</t>
+  </si>
+  <si>
+    <t>不是很满意？我们希望能收到您的任何建议，以变得更好！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not fully satisfied? Please help us improve! Your reviews inspire our small team to strive for excellence!</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_Complain/Root/OperatorRoot/E_CloseComplain/Text (TMP)</t>
+  </si>
+  <si>
+    <t>No thanks</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_LoveIt/Root/title</t>
+  </si>
+  <si>
+    <t>去评分！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate Us！</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_LoveIt/Root/info</t>
+  </si>
+  <si>
+    <t>在应用商店中分享评价，您的建议将帮助我们进步！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share your experience in the app store. Your reviews keep our small team motivated to improve!</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_OperatorMenu/Root/bg/title</t>
+  </si>
+  <si>
+    <t>喜欢这个游戏吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having fun with Reality Guards？</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_OperatorMenu/Root/bg/info</t>
+  </si>
+  <si>
+    <t>感谢您的宝贵建议，这将很好地帮助我们！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>We value your opinion. Your feedback fuels our growth!</t>
+  </si>
+  <si>
+    <t>DlgGameJudgeChoose/EG_OperatorMenu/Root/OperatorRoot/E_CloseMenu/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Dismiss</t>
+  </si>
+  <si>
+    <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/E_Return_Text</t>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>DlgARSceneSliderSimple/E_Slider/title</t>
+  </si>
+  <si>
+    <t>调节尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust scale</t>
+  </si>
+  <si>
+    <t>DlgARSceneSliderSimple/E_Slider/EButton_1/button/Text (TMP)</t>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>DlgARSceneSliderSimple/E_Slider/EButton_2/button/Text (TMP)</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>DlgARSceneSliderSimple/E_Slider/EButton_3/button/Text (TMP)</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>DlgARRoomPVE/EGBackGround/EGRoot/E_OperationPanel/Level/monster/Txt_Monsters</t>
+  </si>
+  <si>
+    <t>Monsters</t>
+  </si>
+  <si>
+    <t>DlgARRoomPVE/EGBackGround/EGRoot/E_OperationPanel/Level/Reward/Txt_Reward</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>MarkerCanvas/GameModeText</t>
+  </si>
+  <si>
+    <t>无限模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarkerCanvas/Text</t>
+  </si>
+  <si>
+    <t>其他玩家可扫码加入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have friends join by scanning the code</t>
+  </si>
+  <si>
+    <t>MarkerCanvas/info/Image/btn</t>
+  </si>
+  <si>
+    <t>加入游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join a room</t>
+  </si>
+  <si>
+    <t>MarkerCanvas/info/Image/Text (TMP)</t>
+  </si>
+  <si>
+    <t>DlgGameModeSetting/EGBackGround/Root/E_Operator/EG_Language/text</t>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgLanguageChoose/EGBackGround/Root/E_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleTowerHUD/EG_OperatorMenu/E_ShowDetail/Text (TMP)</t>
+  </si>
+  <si>
+    <t>View Info</t>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与问卷调查并获得奖励。
+感谢您的宝贵建议！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill out our user survey and get a thank-you gift. 
+Your feedback makes a difference! </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌账号登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign in with Google</t>
+  </si>
+  <si>
+    <t>DlgLogin/Sprite_BackGround/EG_LoginAccountRoot/EG_LoginWhenSDK/E_Login_Apple/Text</t>
+  </si>
+  <si>
+    <t>苹果账号登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign in with Apple</t>
+  </si>
+  <si>
+    <t>赛季关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何加入你的房间？
+1、点击首页的【加入游戏】按钮
+2、扫描左侧的二维码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to join your room?
+1、Tap “Join a room” on home page.
+2、Scan your room QR Code on the left.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgTutorialOne/Tutorials/E_QuitBattle/ELabel_TextBack</t>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleSetting/EGBackGround/Root/E_Other/E_Tutorial/ELabel_Tutorial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgChallengeMode_Info/EGRoot/title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinite Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情视频</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgSkillDetails/E_Details/E_DetailsButton_Video/E_DetailsLabel_VideoText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,14 +2370,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1889,35 +2458,273 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2209,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V208"/>
+  <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2230,7 +3037,7 @@
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2261,10 +3068,10 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2325,10 +3132,10 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2339,7 +3146,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2372,7 +3179,7 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2383,7 +3190,7 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2405,18 +3212,18 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2427,7 +3234,7 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2468,11 +3275,11 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>374</v>
+      <c r="C17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2482,7 +3289,7 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2493,7 +3300,7 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2504,7 +3311,7 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2520,24 +3327,24 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2545,10 +3352,10 @@
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2559,7 +3366,7 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2567,10 +3374,10 @@
       <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2597,140 +3404,140 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
+        <v>628</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E29" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>371</v>
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>375</v>
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>130</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" t="s">
-        <v>119</v>
+        <v>42</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -2741,238 +3548,238 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>376</v>
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>376</v>
+      <c r="E43" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>130</v>
+        <v>44</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" t="s">
-        <v>120</v>
+        <v>42</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>128</v>
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>128</v>
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>128</v>
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>128</v>
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
@@ -2983,1503 +3790,2211 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>154</v>
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" t="s">
-        <v>151</v>
+        <v>138</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>275</v>
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>143</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>23</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>146</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>134</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>148</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="E75" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>373</v>
+        <v>160</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>378</v>
+        <v>482</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>205</v>
+        <v>161</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" t="s">
-        <v>177</v>
+        <v>164</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" t="s">
-        <v>119</v>
+        <v>21</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>178</v>
+        <v>42</v>
+      </c>
+      <c r="E86" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>379</v>
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>209</v>
+      <c r="E90" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E95" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>203</v>
+        <v>182</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>117</v>
+        <v>185</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E97" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" t="s">
-        <v>200</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>198</v>
+        <v>187</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>406</v>
+        <v>192</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>408</v>
+      <c r="B100" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>199</v>
+        <v>635</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="E102" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>212</v>
+      <c r="B104" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>219</v>
+        <v>490</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>220</v>
+        <v>493</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>380</v>
+        <v>496</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>221</v>
+        <v>200</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>226</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>329</v>
+        <v>208</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>440</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>441</v>
+        <v>209</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" t="s">
-        <v>244</v>
-      </c>
-      <c r="E112" t="s">
-        <v>109</v>
+        <v>212</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>229</v>
-      </c>
-      <c r="C113" t="s">
-        <v>245</v>
-      </c>
-      <c r="E113" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114" t="s">
-        <v>231</v>
+        <v>214</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>382</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" t="s">
-        <v>240</v>
-      </c>
-      <c r="E116" t="s">
-        <v>235</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" t="s">
-        <v>241</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>405</v>
+        <v>224</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>463</v>
+        <v>435</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
         <v>242</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="8" t="s">
-        <v>332</v>
+      <c r="B120" t="s">
+        <v>227</v>
       </c>
       <c r="C120" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>359</v>
+        <v>228</v>
+      </c>
+      <c r="C121" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>277</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>383</v>
+        <v>230</v>
+      </c>
+      <c r="C122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>288</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>278</v>
+        <v>232</v>
+      </c>
+      <c r="C123" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
-      </c>
-      <c r="E124" t="s">
-        <v>249</v>
+        <v>239</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>250</v>
-      </c>
-      <c r="C125" t="s">
-        <v>257</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>385</v>
+        <v>235</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E126" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="B127" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" t="s">
         <v>253</v>
       </c>
-      <c r="C127" t="s">
-        <v>259</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>386</v>
+      <c r="E127" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>254</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>387</v>
+        <v>245</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>262</v>
-      </c>
-      <c r="C129" t="s">
-        <v>266</v>
-      </c>
-      <c r="E129" t="s">
-        <v>290</v>
+        <v>275</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>263</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E130" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C131" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>272</v>
+        <v>248</v>
+      </c>
+      <c r="C132" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>269</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>271</v>
+        <v>249</v>
+      </c>
+      <c r="C133" t="s">
+        <v>256</v>
       </c>
       <c r="E133" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>285</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E134" t="s">
-        <v>287</v>
+        <v>251</v>
+      </c>
+      <c r="C134" t="s">
+        <v>257</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>292</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>299</v>
+        <v>252</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>294</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>388</v>
+        <v>260</v>
+      </c>
+      <c r="C136" t="s">
+        <v>264</v>
+      </c>
+      <c r="E136" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>298</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>302</v>
+      <c r="B138" t="s">
+        <v>263</v>
+      </c>
+      <c r="C138" t="s">
+        <v>265</v>
+      </c>
+      <c r="E138" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>394</v>
+      <c r="B139" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>306</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>307</v>
+        <v>267</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E140" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>310</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>302</v>
+        <v>283</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C142" t="s">
-        <v>312</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>395</v>
+      <c r="B142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>313</v>
-      </c>
-      <c r="C143" t="s">
-        <v>314</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>315</v>
+        <v>292</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>316</v>
-      </c>
-      <c r="C144" t="s">
-        <v>317</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>318</v>
+        <v>296</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" t="s">
-        <v>320</v>
-      </c>
-      <c r="E145" s="8" t="s">
+      <c r="B145" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>322</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E146" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>326</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E147" t="s">
-        <v>325</v>
+        <v>304</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E148" t="s">
-        <v>329</v>
+        <v>308</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>330</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E149" s="8" t="s">
+      <c r="B149" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="E149" s="7" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>395</v>
+      <c r="B150" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" t="s">
+        <v>312</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>338</v>
+      <c r="B151" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151" t="s">
+        <v>315</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>391</v>
+      <c r="B152" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" t="s">
+        <v>318</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>392</v>
+      <c r="B153" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
+        <v>324</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>326</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E155" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C162" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="8" t="s">
+      <c r="C163" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C164" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="C165" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="8" t="s">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E166" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" t="s">
+        <v>394</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" t="s">
+        <v>397</v>
+      </c>
+      <c r="E176" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>398</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>408</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>422</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E182" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E162" s="8" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E167" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>398</v>
-      </c>
-      <c r="C168" t="s">
-        <v>399</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>401</v>
-      </c>
-      <c r="C169" t="s">
-        <v>402</v>
-      </c>
-      <c r="E169" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>403</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>413</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="E183" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C175" s="8" t="s">
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="E175" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="8" t="s">
+      <c r="E185" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E176" s="8" t="s">
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C178" s="8" t="s">
+      <c r="C186" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E186" t="s">
         <v>434</v>
       </c>
-      <c r="E178" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>437</v>
-      </c>
-      <c r="C179" s="8" t="s">
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>438</v>
       </c>
-      <c r="E179" t="s">
+      <c r="C188" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E188" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>441</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="E189" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>444</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E191" t="s">
         <v>445</v>
       </c>
-      <c r="E181" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>446</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="C192" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E192" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>449</v>
-      </c>
-      <c r="C184" t="s">
-        <v>450</v>
-      </c>
-      <c r="E184" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>451</v>
-      </c>
-      <c r="C185" t="s">
-        <v>452</v>
-      </c>
-      <c r="E185" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>453</v>
-      </c>
-      <c r="C186" t="s">
-        <v>454</v>
-      </c>
-      <c r="E186" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>455</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>457</v>
-      </c>
-      <c r="C188" t="s">
-        <v>458</v>
-      </c>
-      <c r="E188" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>459</v>
-      </c>
-      <c r="C190" t="s">
-        <v>460</v>
-      </c>
-      <c r="E190" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>461</v>
-      </c>
-      <c r="C191" t="s">
-        <v>462</v>
-      </c>
-      <c r="E191" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>464</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>465</v>
+        <v>448</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E193" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E195" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>453</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E197" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>455</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E198" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>621</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E199" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>458</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>464</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>466</v>
       </c>
-      <c r="C195" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+      <c r="C205" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
         <v>467</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
+      <c r="C207" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
         <v>468</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C208" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E197" s="8" t="s">
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>470</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E209" s="7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C198" s="8" t="s">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
         <v>471</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="12" t="s">
+      <c r="C210" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
         <v>472</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C211" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E211" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E199" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="12" t="s">
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="12" t="s">
+      <c r="C212" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>474</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C213" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E213" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E202" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="12" t="s">
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>476</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="12" t="s">
+      <c r="C214" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
         <v>478</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="8" t="s">
+      <c r="C216" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>394</v>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>511</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E218" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>514</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E219" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>517</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>519</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E221" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>522</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>524</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E223" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>526</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E224" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>527</v>
+      </c>
+      <c r="C226" t="s">
+        <v>528</v>
+      </c>
+      <c r="E226" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>530</v>
+      </c>
+      <c r="C227" t="s">
+        <v>531</v>
+      </c>
+      <c r="E227" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>533</v>
+      </c>
+      <c r="C228" t="s">
+        <v>534</v>
+      </c>
+      <c r="E228" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>536</v>
+      </c>
+      <c r="C229" t="s">
+        <v>278</v>
+      </c>
+      <c r="E229" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>537</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>540</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E233" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>543</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E234" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>546</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>549</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E237" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>552</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E239" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>555</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E240" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>558</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="E241" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>561</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E242" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>564</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E243" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>567</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E244" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>570</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E245" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="E246" s="7"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C249" s="7"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C250" s="7"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C251" s="7"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>571</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E252" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>574</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E253" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>577</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E254" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>579</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E255" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>582</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E256" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>585</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E257" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>588</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E258" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>591</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E259" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>593</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E261" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>596</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E263" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>599</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E264" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>602</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E265" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>605</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E266" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>608</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E268" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>610</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E269" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>612</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E271" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>614</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E272" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>617</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E273" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>620</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>626</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>642</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B140:B165 B167:B1048576 B1:B138">
+  <conditionalFormatting sqref="B79:B80">
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:B94">
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B107">
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147:B159 B174:B190 B1:B78 B82:B92 B95 B108:B145 B161:B172 B275 B97:B104 B278:B1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B191:B198">
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199">
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B200">
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B201:B247 B249:B251">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B252:B259 B261:B274">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B276">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B08A85-8A91-4E5B-9666-BAEBF6F63A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC073C-7B70-4777-878A-ACA3068CF0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="659">
   <si>
     <t>##var</t>
   </si>
@@ -1404,9 +1404,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DlgMail/Inbox/MainContent/TopTitle/titleBK/Txt</t>
-  </si>
-  <si>
     <t>邮箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2337,6 +2334,40 @@
   </si>
   <si>
     <t>DlgSkillDetails/E_Details/E_DetailsButton_Video/E_DetailsLabel_VideoText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_SkillBattleInfo/EButton_BuyEnergy/ELabel_BuyEnergy</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Item_SkillBattleInfo/EButton_ShowDetail/ELabel_ShowDetail</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>DlgBeginnersGuideStory/E_SKIPTUTORIAL/Text (TMP)</t>
+  </si>
+  <si>
+    <t>SKIP TUTORIAL</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel  /E_function/E_Function/E_Bags/Text (TMP)</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>DlgGameModeAR/E_HomePage/E_OperationPanel/E_function/E_Function/E_Store/Text (TMP)</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>DlgMail/Inbox/MainContent/TopTitle/titleBK/Txt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3016,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V284"/>
+  <dimension ref="A1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3405,13 +3436,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>627</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E29" t="s">
         <v>628</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="E29" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -3958,18 +3989,18 @@
         <v>160</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>481</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>124</v>
@@ -4109,29 +4140,29 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>189</v>
@@ -4189,21 +4220,21 @@
         <v>193</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>634</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>636</v>
-      </c>
       <c r="E101" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -4222,54 +4253,54 @@
         <v>195</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
+        <v>489</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
+        <v>492</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>495</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
@@ -4375,13 +4406,13 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
@@ -4447,7 +4478,7 @@
         <v>239</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
@@ -4458,7 +4489,7 @@
         <v>241</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
@@ -4840,10 +4871,10 @@
         <v>338</v>
       </c>
       <c r="C160" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E160" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
@@ -4876,7 +4907,7 @@
         <v>358</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
@@ -4887,7 +4918,7 @@
         <v>359</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
@@ -4942,7 +4973,7 @@
         <v>366</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
@@ -4988,254 +5019,254 @@
         <v>391</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F174"/>
     </row>
     <row r="175" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="B175" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C175" t="s">
         <v>393</v>
-      </c>
-      <c r="C175" t="s">
-        <v>394</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F175"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
+        <v>395</v>
+      </c>
+      <c r="C176" t="s">
         <v>396</v>
       </c>
-      <c r="C176" t="s">
-        <v>397</v>
-      </c>
       <c r="E176" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="E177" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
+        <v>407</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="E178" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F179" s="9"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F180" s="9"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
+        <v>421</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E182" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="E183" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C185" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E185" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
+        <v>431</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="E186" t="s">
         <v>433</v>
-      </c>
-      <c r="E186" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
+        <v>437</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" t="s">
         <v>438</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="E188" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
+        <v>440</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E189" t="s">
         <v>441</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E189" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
+        <v>443</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E191" t="s">
         <v>444</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E191" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E192" t="s">
         <v>446</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="E192" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
+        <v>447</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E193" t="s">
         <v>448</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E193" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C194" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E194" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="E194" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
+        <v>450</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E195" t="s">
         <v>451</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E195" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
+        <v>452</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E197" t="s">
         <v>453</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E197" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
+        <v>454</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E198" t="s">
         <v>455</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E198" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
+        <v>620</v>
+      </c>
+      <c r="C199" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="E199" t="s">
         <v>622</v>
-      </c>
-      <c r="E199" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
+        <v>457</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E200" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>335</v>
@@ -5246,54 +5277,54 @@
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E203" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
+        <v>463</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E204" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>356</v>
@@ -5301,10 +5332,10 @@
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>356</v>
@@ -5312,51 +5343,51 @@
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
+        <v>467</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>348</v>
@@ -5367,21 +5398,21 @@
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>389</v>
@@ -5389,139 +5420,139 @@
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>332</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
+        <v>507</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="E217" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
+        <v>510</v>
+      </c>
+      <c r="C218" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="E218" t="s">
         <v>512</v>
-      </c>
-      <c r="E218" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
+        <v>513</v>
+      </c>
+      <c r="C219" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="E219" t="s">
         <v>515</v>
-      </c>
-      <c r="E219" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
+        <v>516</v>
+      </c>
+      <c r="C220" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>518</v>
-      </c>
       <c r="E220" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
+        <v>518</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="E221" t="s">
         <v>520</v>
-      </c>
-      <c r="E221" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>521</v>
+      </c>
+      <c r="C222" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C222" s="7" t="s">
-        <v>523</v>
-      </c>
       <c r="E222" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
+        <v>523</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E223" t="s">
         <v>524</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E223" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C224" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E224" t="s">
         <v>426</v>
-      </c>
-      <c r="E224" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
+        <v>526</v>
+      </c>
+      <c r="C226" t="s">
         <v>527</v>
       </c>
-      <c r="C226" t="s">
+      <c r="E226" t="s">
         <v>528</v>
-      </c>
-      <c r="E226" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
+        <v>529</v>
+      </c>
+      <c r="C227" t="s">
         <v>530</v>
       </c>
-      <c r="C227" t="s">
+      <c r="E227" t="s">
         <v>531</v>
-      </c>
-      <c r="E227" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
+        <v>532</v>
+      </c>
+      <c r="C228" t="s">
         <v>533</v>
       </c>
-      <c r="C228" t="s">
+      <c r="E228" t="s">
         <v>534</v>
-      </c>
-      <c r="E228" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C229" t="s">
         <v>278</v>
@@ -5532,134 +5563,134 @@
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
+        <v>536</v>
+      </c>
+      <c r="C231" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="E231" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
+        <v>539</v>
+      </c>
+      <c r="C233" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="E233" t="s">
         <v>541</v>
-      </c>
-      <c r="E233" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
+        <v>542</v>
+      </c>
+      <c r="C234" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="E234" t="s">
         <v>544</v>
-      </c>
-      <c r="E234" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
+        <v>545</v>
+      </c>
+      <c r="C235" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="E235" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
+        <v>548</v>
+      </c>
+      <c r="C237" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="E237" t="s">
         <v>550</v>
-      </c>
-      <c r="E237" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
+        <v>551</v>
+      </c>
+      <c r="C239" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="E239" t="s">
         <v>553</v>
-      </c>
-      <c r="E239" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
+        <v>554</v>
+      </c>
+      <c r="C240" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="E240" t="s">
         <v>556</v>
-      </c>
-      <c r="E240" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
+        <v>557</v>
+      </c>
+      <c r="C241" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="E241" t="s">
         <v>559</v>
-      </c>
-      <c r="E241" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
+        <v>560</v>
+      </c>
+      <c r="C242" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="E242" t="s">
         <v>562</v>
-      </c>
-      <c r="E242" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
+        <v>563</v>
+      </c>
+      <c r="C243" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="E243" t="s">
         <v>565</v>
-      </c>
-      <c r="E243" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
+        <v>566</v>
+      </c>
+      <c r="C244" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="E244" t="s">
         <v>568</v>
-      </c>
-      <c r="E244" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E245" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
@@ -5682,175 +5713,175 @@
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
+        <v>570</v>
+      </c>
+      <c r="C252" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="E252" t="s">
         <v>572</v>
-      </c>
-      <c r="E252" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
+        <v>573</v>
+      </c>
+      <c r="C253" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="E253" t="s">
         <v>575</v>
-      </c>
-      <c r="E253" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
+        <v>576</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E254" t="s">
         <v>577</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E254" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
+        <v>578</v>
+      </c>
+      <c r="C255" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="E255" t="s">
         <v>580</v>
-      </c>
-      <c r="E255" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
+        <v>581</v>
+      </c>
+      <c r="C256" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="E256" t="s">
         <v>583</v>
-      </c>
-      <c r="E256" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
+        <v>584</v>
+      </c>
+      <c r="C257" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="E257" t="s">
         <v>586</v>
-      </c>
-      <c r="E257" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
+        <v>587</v>
+      </c>
+      <c r="C258" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="E258" t="s">
         <v>589</v>
-      </c>
-      <c r="E258" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
+        <v>590</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E259" t="s">
         <v>591</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E259" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
+        <v>592</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="E261" t="s">
         <v>594</v>
-      </c>
-      <c r="E261" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
+        <v>595</v>
+      </c>
+      <c r="C263" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="E263" t="s">
         <v>597</v>
-      </c>
-      <c r="E263" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
+        <v>598</v>
+      </c>
+      <c r="C264" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="E264" t="s">
         <v>600</v>
-      </c>
-      <c r="E264" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
+        <v>601</v>
+      </c>
+      <c r="C265" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="E265" t="s">
         <v>603</v>
-      </c>
-      <c r="E265" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
+        <v>604</v>
+      </c>
+      <c r="C266" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="E266" t="s">
         <v>606</v>
-      </c>
-      <c r="E266" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
+        <v>607</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E268" t="s">
         <v>608</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E268" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
+        <v>609</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E269" t="s">
         <v>610</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E269" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
+        <v>611</v>
+      </c>
+      <c r="C271" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="E271" t="s">
         <v>233</v>
@@ -5858,90 +5889,145 @@
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
+        <v>613</v>
+      </c>
+      <c r="C272" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="E272" t="s">
         <v>615</v>
-      </c>
-      <c r="E272" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
+        <v>616</v>
+      </c>
+      <c r="C273" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="E273" t="s">
         <v>618</v>
-      </c>
-      <c r="E273" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="69" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C274" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="E274" s="10" t="s">
         <v>640</v>
-      </c>
-      <c r="E274" s="10" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
+        <v>625</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E276" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="E276" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
+        <v>641</v>
+      </c>
+      <c r="C278" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="C278" s="7" t="s">
-        <v>643</v>
-      </c>
       <c r="E278" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C282" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="C282" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="E282" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
         <v>648</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="E284" s="7" t="s">
-        <v>647</v>
+      <c r="C286" t="s">
+        <v>649</v>
+      </c>
+      <c r="E286" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>650</v>
+      </c>
+      <c r="C287" t="s">
+        <v>651</v>
+      </c>
+      <c r="E287" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>652</v>
+      </c>
+      <c r="C288" t="s">
+        <v>653</v>
+      </c>
+      <c r="E288" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>654</v>
+      </c>
+      <c r="C289" t="s">
+        <v>655</v>
+      </c>
+      <c r="E289" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>656</v>
+      </c>
+      <c r="C290" t="s">
+        <v>657</v>
+      </c>
+      <c r="E290" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC073C-7B70-4777-878A-ACA3068CF0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC474FC-94DB-4419-BE70-9C27FC065F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="679">
   <si>
     <t>##var</t>
   </si>
@@ -971,10 +971,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Towers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgBattleTowerEnd/E_Root/E_ReturnRoom/Text</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -991,10 +987,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>重扫战场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DlgARRoom/EGBackGround/E_Rescan/Text (TMP)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1357,10 +1349,6 @@
   </si>
   <si>
     <t>Inventory</t>
-  </si>
-  <si>
-    <t>防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>to continue playing.</t>
@@ -2340,15 +2328,9 @@
     <t>Item_SkillBattleInfo/EButton_BuyEnergy/ELabel_BuyEnergy</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>Item_SkillBattleInfo/EButton_ShowDetail/ELabel_ShowDetail</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>DlgBeginnersGuideStory/E_SKIPTUTORIAL/Text (TMP)</t>
   </si>
   <si>
@@ -2368,6 +2350,98 @@
   </si>
   <si>
     <t>DlgMail/Inbox/MainContent/TopTitle/titleBK/Txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgTowerDetails/E_Details/info/ToggleGroup/EToggle_Lv1/Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgTowerDetails/E_Details/info/ToggleGroup/EToggle_Lv2/Text</t>
+  </si>
+  <si>
+    <t>DlgTowerDetails/E_Details/info/ToggleGroup/EToggle_Lv3/Text</t>
+  </si>
+  <si>
+    <t>Lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv2</t>
+  </si>
+  <si>
+    <t>Lv3</t>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过教学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DlgBattleDeck/E_HomePage/E_play/E_GameMode/titleBK/TabTower/ETabSelectBtnTower/text</t>
+  </si>
+  <si>
+    <t>DlgBattleDeck/E_HomePage/E_play/E_GameMode/titleBK/TabSkill/ETabSelectBtnSkill/text</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重选尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rescale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAILS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFILL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3047,21 +3121,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V290"/>
+  <dimension ref="A1:V297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" customWidth="1"/>
-    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="3" max="4" width="32.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3169,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3129,7 +3203,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,7 +3233,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -3170,7 +3244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3181,7 +3255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -3192,7 +3266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -3214,7 +3288,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -3225,7 +3299,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -3236,7 +3310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -3247,7 +3321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>149</v>
       </c>
@@ -3258,7 +3332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -3269,7 +3343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -3280,7 +3354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -3291,7 +3365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -3302,18 +3376,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -3324,7 +3398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3335,7 +3409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -3346,7 +3420,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -3357,18 +3431,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -3379,7 +3453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -3390,7 +3464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -3401,7 +3475,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -3412,7 +3486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -3423,7 +3497,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -3434,20 +3508,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E29" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
@@ -3456,7 +3530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -3467,7 +3541,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -3478,7 +3552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>58</v>
       </c>
@@ -3489,7 +3563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -3500,7 +3574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -3511,7 +3585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -3522,7 +3596,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>64</v>
       </c>
@@ -3533,7 +3607,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>65</v>
       </c>
@@ -3541,10 +3615,10 @@
         <v>66</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>71</v>
       </c>
@@ -3552,10 +3626,10 @@
         <v>72</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -3566,7 +3640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>75</v>
       </c>
@@ -3577,7 +3651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>76</v>
       </c>
@@ -3588,7 +3662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>77</v>
       </c>
@@ -3596,10 +3670,10 @@
         <v>44</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>78</v>
       </c>
@@ -3607,10 +3681,10 @@
         <v>44</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -3621,7 +3695,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>80</v>
       </c>
@@ -3632,7 +3706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>82</v>
       </c>
@@ -3643,7 +3717,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>83</v>
       </c>
@@ -3654,7 +3728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>85</v>
       </c>
@@ -3665,7 +3739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>87</v>
       </c>
@@ -3676,7 +3750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -3687,7 +3761,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>89</v>
       </c>
@@ -3698,7 +3772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>90</v>
       </c>
@@ -3709,7 +3783,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>91</v>
       </c>
@@ -3720,7 +3794,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>92</v>
       </c>
@@ -3731,7 +3805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>93</v>
       </c>
@@ -3742,7 +3816,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>94</v>
       </c>
@@ -3753,7 +3827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>95</v>
       </c>
@@ -3764,7 +3838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>96</v>
       </c>
@@ -3775,7 +3849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>97</v>
       </c>
@@ -3786,7 +3860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>98</v>
       </c>
@@ -3797,7 +3871,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -3808,7 +3882,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>100</v>
       </c>
@@ -3819,7 +3893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>101</v>
       </c>
@@ -3830,7 +3904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>133</v>
       </c>
@@ -3841,7 +3915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>135</v>
       </c>
@@ -3852,7 +3926,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>136</v>
       </c>
@@ -3863,7 +3937,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>137</v>
       </c>
@@ -3874,7 +3948,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>139</v>
       </c>
@@ -3885,7 +3959,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>141</v>
       </c>
@@ -3896,7 +3970,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>142</v>
       </c>
@@ -3907,7 +3981,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>144</v>
       </c>
@@ -3918,7 +3992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>145</v>
       </c>
@@ -3929,7 +4003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>147</v>
       </c>
@@ -3940,7 +4014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>148</v>
       </c>
@@ -3948,10 +4022,10 @@
         <v>132</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>155</v>
       </c>
@@ -3962,7 +4036,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>158</v>
       </c>
@@ -3973,40 +4047,40 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>281</v>
+        <v>675</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>160</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>478</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>481</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>161</v>
       </c>
@@ -4014,10 +4088,10 @@
         <v>167</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>162</v>
       </c>
@@ -4025,10 +4099,10 @@
         <v>168</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>163</v>
       </c>
@@ -4039,7 +4113,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>164</v>
       </c>
@@ -4050,7 +4124,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>169</v>
       </c>
@@ -4061,7 +4135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>170</v>
       </c>
@@ -4072,7 +4146,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>171</v>
       </c>
@@ -4083,7 +4157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>172</v>
       </c>
@@ -4094,7 +4168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>173</v>
       </c>
@@ -4105,7 +4179,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>174</v>
       </c>
@@ -4113,10 +4187,10 @@
         <v>205</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>175</v>
       </c>
@@ -4127,42 +4201,42 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>189</v>
@@ -4171,7 +4245,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>182</v>
       </c>
@@ -4182,7 +4256,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>185</v>
       </c>
@@ -4193,7 +4267,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>187</v>
       </c>
@@ -4201,10 +4275,10 @@
         <v>191</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>192</v>
       </c>
@@ -4215,29 +4289,29 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>193</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>631</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="E101" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>194</v>
       </c>
@@ -4248,62 +4322,62 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>195</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
+        <v>486</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>489</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>492</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>495</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>196</v>
       </c>
@@ -4314,14 +4388,14 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>206</v>
       </c>
       <c r="C109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>208</v>
       </c>
@@ -4332,7 +4406,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>209</v>
       </c>
@@ -4343,7 +4417,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>212</v>
       </c>
@@ -4354,7 +4428,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>213</v>
       </c>
@@ -4365,7 +4439,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>214</v>
       </c>
@@ -4373,10 +4447,10 @@
         <v>222</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>215</v>
       </c>
@@ -4387,13 +4461,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>216</v>
       </c>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>224</v>
       </c>
@@ -4401,21 +4475,21 @@
         <v>225</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>226</v>
       </c>
@@ -4426,7 +4500,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>227</v>
       </c>
@@ -4437,7 +4511,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>228</v>
       </c>
@@ -4445,10 +4519,10 @@
         <v>229</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>230</v>
       </c>
@@ -4456,10 +4530,10 @@
         <v>231</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>232</v>
       </c>
@@ -4470,7 +4544,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>234</v>
       </c>
@@ -4478,10 +4552,10 @@
         <v>239</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>235</v>
       </c>
@@ -4489,10 +4563,10 @@
         <v>241</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>236</v>
       </c>
@@ -4503,9 +4577,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C127" t="s">
         <v>253</v>
@@ -4514,40 +4588,40 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>245</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>275</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>246</v>
       </c>
@@ -4558,7 +4632,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>248</v>
       </c>
@@ -4566,10 +4640,10 @@
         <v>255</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>249</v>
       </c>
@@ -4580,7 +4654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>251</v>
       </c>
@@ -4588,10 +4662,10 @@
         <v>257</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>252</v>
       </c>
@@ -4599,10 +4673,10 @@
         <v>258</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>260</v>
       </c>
@@ -4610,10 +4684,10 @@
         <v>264</v>
       </c>
       <c r="E136" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>261</v>
       </c>
@@ -4621,10 +4695,10 @@
         <v>259</v>
       </c>
       <c r="E137" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>263</v>
       </c>
@@ -4635,7 +4709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>266</v>
       </c>
@@ -4646,7 +4720,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>267</v>
       </c>
@@ -4657,1377 +4731,1432 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E141" t="s">
         <v>283</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>290</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C143" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E143" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>292</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>296</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
+      <c r="C146" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>304</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="C149" t="s">
         <v>308</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="7" t="s">
+      <c r="E149" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>309</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>310</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+      <c r="E150" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>312</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="C151" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+      <c r="E151" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>315</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="C152" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>317</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="E152" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
         <v>318</v>
       </c>
-      <c r="E152" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="C153" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="E153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>322</v>
       </c>
-      <c r="E153" t="s">
+      <c r="C154" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E154" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>324</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E154" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>326</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E155" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>326</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>328</v>
-      </c>
-      <c r="C156" s="7" t="s">
+      <c r="E156" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="E156" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="7" t="s">
+      <c r="C157" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E159" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="7" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C159" s="7" t="s">
+      <c r="C160" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>337</v>
       </c>
-      <c r="E159" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="7" t="s">
+      <c r="C161" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>339</v>
-      </c>
-      <c r="C161" s="7" t="s">
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
+      <c r="E162" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C163" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="7" t="s">
+      <c r="E164" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C165" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="7" t="s">
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C166" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E164" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="7" t="s">
+      <c r="E166" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>274</v>
       </c>
       <c r="E167" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E168" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C169" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E168" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F174"/>
     </row>
-    <row r="175" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C175" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>392</v>
+      </c>
+      <c r="C176" t="s">
+        <v>393</v>
+      </c>
+      <c r="E176" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
         <v>394</v>
       </c>
-      <c r="F175"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="C177" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C176" t="s">
-        <v>396</v>
-      </c>
-      <c r="E176" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>397</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="E177" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>404</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>407</v>
-      </c>
-      <c r="C178" s="7" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="C179" s="9" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="F179" s="9"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="C180" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F180" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
+        <v>418</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C183" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E183" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E182" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C183" s="7" t="s">
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B185" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E185" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="7" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>428</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E186" t="s">
         <v>430</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>431</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E186" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
+        <v>434</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E188" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
         <v>437</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C189" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
         <v>440</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C191" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E191" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
         <v>442</v>
       </c>
-      <c r="E189" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="C192" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E192" t="s">
         <v>443</v>
       </c>
-      <c r="C191" s="7" t="s">
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>444</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E193" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>446</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>447</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E195" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>449</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E197" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>451</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E198" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>617</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E199" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>454</v>
+      </c>
+      <c r="C200" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E191" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>445</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E192" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>447</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E193" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>449</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="E194" s="10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>450</v>
-      </c>
-      <c r="C195" s="7" t="s">
+      <c r="E200" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E195" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>452</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E197" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>454</v>
-      </c>
-      <c r="C198" s="7" t="s">
+      <c r="E203" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>460</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>462</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>463</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>464</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="E198" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>620</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="E199" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>457</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>463</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+      <c r="E208" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
         <v>466</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+      <c r="C209" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
         <v>467</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E208" s="7" t="s">
+      <c r="C210" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+      <c r="C211" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+      <c r="C212" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
         <v>470</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>471</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>473</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E213" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>472</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+      <c r="C216" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C214" s="7" t="s">
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>504</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E217" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="E214" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>477</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
         <v>507</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C218" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E217" s="7" t="s">
+      <c r="E218" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
         <v>510</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E219" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
         <v>513</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C220" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E220" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+      <c r="C221" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="E221" t="s">
         <v>517</v>
       </c>
-      <c r="E220" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
         <v>518</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E222" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+      <c r="C223" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E223" t="s">
         <v>521</v>
       </c>
-      <c r="C222" s="7" t="s">
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
         <v>522</v>
       </c>
-      <c r="E222" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+      <c r="C224" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E224" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
         <v>523</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E223" t="s">
+      <c r="C226" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+      <c r="E226" t="s">
         <v>525</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E224" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
         <v>526</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>527</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E227" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>529</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>530</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E228" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>532</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
+        <v>277</v>
+      </c>
+      <c r="E229" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
         <v>533</v>
       </c>
-      <c r="E228" t="s">
+      <c r="C231" s="7" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
+      <c r="E231" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="C229" t="s">
-        <v>278</v>
-      </c>
-      <c r="E229" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>536</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="E231" s="7" t="s">
+      <c r="E233" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
         <v>539</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C234" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E234" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
         <v>542</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C235" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E235" s="7" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
         <v>545</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C237" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E235" s="7" t="s">
+      <c r="E237" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
         <v>548</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E239" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
         <v>551</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E240" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
         <v>554</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E241" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
         <v>557</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C242" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E242" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
         <v>560</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C243" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E243" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
         <v>563</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C244" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E244" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>566</v>
       </c>
-      <c r="C244" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E244" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>569</v>
-      </c>
       <c r="C245" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E245" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C249" s="7"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C250" s="7"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C251" s="7"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
+        <v>567</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E252" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
         <v>570</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C253" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E253" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
         <v>573</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C254" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E254" t="s">
         <v>574</v>
       </c>
-      <c r="E253" t="s">
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+      <c r="C255" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C254" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="E255" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
         <v>578</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C256" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E256" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
         <v>581</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C257" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E257" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
         <v>584</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C258" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E258" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
         <v>587</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C259" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E259" t="s">
         <v>588</v>
       </c>
-      <c r="E258" t="s">
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+      <c r="C261" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E259" t="s">
+      <c r="E261" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
         <v>592</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C263" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E263" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
         <v>595</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C264" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E264" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
         <v>598</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C265" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E265" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
         <v>601</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C266" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E266" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
         <v>604</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C268" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E268" t="s">
         <v>605</v>
       </c>
-      <c r="E266" t="s">
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+      <c r="C269" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E269" t="s">
         <v>607</v>
       </c>
-      <c r="C268" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E268" t="s">
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+      <c r="C271" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E269" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>611</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="E271" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
+        <v>610</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E272" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
         <v>613</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C273" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E273" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
+    <row r="274" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
         <v>616</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="C274" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>622</v>
+      </c>
+      <c r="C276" s="7" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="274" spans="2:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>619</v>
-      </c>
-      <c r="C274" s="10" t="s">
+      <c r="E276" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>638</v>
+      </c>
+      <c r="C278" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="E274" s="10" t="s">
+      <c r="E278" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B280" s="7" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
-        <v>625</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="E276" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+      <c r="C280" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C282" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="E278" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="7" t="s">
+      <c r="E282" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C284" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E280" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B282" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="C282" s="7" t="s">
+      <c r="E284" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
         <v>645</v>
       </c>
-      <c r="E282" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="7" t="s">
+      <c r="C286" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>646</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
         <v>647</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E284" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+      <c r="C288" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E288" t="s">
         <v>648</v>
       </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
         <v>649</v>
       </c>
-      <c r="E286" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+      <c r="C289" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E289" t="s">
         <v>650</v>
       </c>
-      <c r="C287" t="s">
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
         <v>651</v>
       </c>
-      <c r="E287" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+      <c r="C290" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E290" t="s">
         <v>652</v>
       </c>
-      <c r="C288" t="s">
-        <v>653</v>
-      </c>
-      <c r="E288" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
         <v>654</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C292" t="s">
+        <v>660</v>
+      </c>
+      <c r="E292" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
         <v>655</v>
       </c>
-      <c r="E289" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
+      <c r="C293" t="s">
+        <v>661</v>
+      </c>
+      <c r="E293" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
         <v>656</v>
       </c>
-      <c r="C290" t="s">
-        <v>657</v>
-      </c>
-      <c r="E290" t="s">
-        <v>657</v>
+      <c r="C294" t="s">
+        <v>662</v>
+      </c>
+      <c r="E294" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>668</v>
+      </c>
+      <c r="C296" t="s">
+        <v>670</v>
+      </c>
+      <c r="E296" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>669</v>
+      </c>
+      <c r="C297" t="s">
+        <v>671</v>
+      </c>
+      <c r="E297" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
